--- a/Assets/Resources/Configs/GameConfig.xlsx
+++ b/Assets/Resources/Configs/GameConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SheepConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="119">
   <si>
     <t>SheepType</t>
   </si>
@@ -320,324 +320,6 @@
     <t>Reward_List</t>
   </si>
   <si>
-    <t>GEM:0,SUN:20000</t>
-  </si>
-  <si>
-    <t>POT_SPACE:1</t>
-  </si>
-  <si>
-    <t>POT_SPACE:1,GEM:3</t>
-  </si>
-  <si>
-    <t>POT_SPACE:1,SUN:20000</t>
-  </si>
-  <si>
-    <t>POT_SPACE:1,SHOVEL:25</t>
-  </si>
-  <si>
-    <t>POT_SPACE:1,GEM:5</t>
-  </si>
-  <si>
-    <t>SHOVEL:350</t>
-  </si>
-  <si>
-    <t>GOLDEN_BOX:1</t>
-  </si>
-  <si>
-    <t>ULTRA_MERGE:1</t>
-  </si>
-  <si>
-    <t>GEM:7</t>
-  </si>
-  <si>
-    <t>SHOVEL:1100</t>
-  </si>
-  <si>
-    <t>SUPER_SPEED:1</t>
-  </si>
-  <si>
-    <t>MEGA_TAP:1</t>
-  </si>
-  <si>
-    <t>SHOVEL:2200</t>
-  </si>
-  <si>
-    <t>SHOVEL:3500</t>
-  </si>
-  <si>
-    <t>SHOVEL:5100</t>
-  </si>
-  <si>
-    <t>SHOVEL:7000</t>
-  </si>
-  <si>
-    <t>SHOVEL:9700</t>
-  </si>
-  <si>
-    <t>SHOVEL:12900</t>
-  </si>
-  <si>
-    <t>SHOVEL:16700</t>
-  </si>
-  <si>
-    <t>SHOVEL:21200</t>
-  </si>
-  <si>
-    <t>SHOVEL:27700</t>
-  </si>
-  <si>
-    <t>SHOVEL:35500</t>
-  </si>
-  <si>
-    <t>SHOVEL:44900</t>
-  </si>
-  <si>
-    <t>GEM:8</t>
-  </si>
-  <si>
-    <t>SHOVEL:56100</t>
-  </si>
-  <si>
-    <t>SHOVEL:72300</t>
-  </si>
-  <si>
-    <t>SHOVEL:91700</t>
-  </si>
-  <si>
-    <t>SHOVEL:114900</t>
-  </si>
-  <si>
-    <t>SHOVEL:142800</t>
-  </si>
-  <si>
-    <t>SHOVEL:182900</t>
-  </si>
-  <si>
-    <t>SHOVEL:231000</t>
-  </si>
-  <si>
-    <t>SHOVEL:288700</t>
-  </si>
-  <si>
-    <t>SHOVEL:358000</t>
-  </si>
-  <si>
-    <t>SHOVEL:457700</t>
-  </si>
-  <si>
-    <t>SHOVEL:577400</t>
-  </si>
-  <si>
-    <t>SHOVEL:721000</t>
-  </si>
-  <si>
-    <t>GEM:9</t>
-  </si>
-  <si>
-    <t>SHOVEL:893300</t>
-  </si>
-  <si>
-    <t>SHOVEL:1141400</t>
-  </si>
-  <si>
-    <t>SHOVEL:1439100</t>
-  </si>
-  <si>
-    <t>SHOVEL:1796400</t>
-  </si>
-  <si>
-    <t>SHOVEL:2225100</t>
-  </si>
-  <si>
-    <t>SHOVEL:2842500</t>
-  </si>
-  <si>
-    <t>SHOVEL:3583300</t>
-  </si>
-  <si>
-    <t>SHOVEL:4472300</t>
-  </si>
-  <si>
-    <t>SHOVEL:5539100</t>
-  </si>
-  <si>
-    <t>SHOVEL:7075200</t>
-  </si>
-  <si>
-    <t>SHOVEL:8918500</t>
-  </si>
-  <si>
-    <t>SHOVEL:11130500</t>
-  </si>
-  <si>
-    <t>GEM:10</t>
-  </si>
-  <si>
-    <t>SHOVEL:13784800</t>
-  </si>
-  <si>
-    <t>SHOVEL:17607000</t>
-  </si>
-  <si>
-    <t>SHOVEL:22193700</t>
-  </si>
-  <si>
-    <t>SHOVEL:27697700</t>
-  </si>
-  <si>
-    <t>SHOVEL:34302500</t>
-  </si>
-  <si>
-    <t>SHOVEL:43813400</t>
-  </si>
-  <si>
-    <t>GEM:11</t>
-  </si>
-  <si>
-    <t>SHOVEL:55226400</t>
-  </si>
-  <si>
-    <t>SHOVEL:68922000</t>
-  </si>
-  <si>
-    <t>SHOVEL:85356700</t>
-  </si>
-  <si>
-    <t>SHOVEL:109022700</t>
-  </si>
-  <si>
-    <t>SHOVEL:137421900</t>
-  </si>
-  <si>
-    <t>SHOVEL:171500900</t>
-  </si>
-  <si>
-    <t>GEM:12</t>
-  </si>
-  <si>
-    <t>SHOVEL:212395700</t>
-  </si>
-  <si>
-    <t>SHOVEL:271284200</t>
-  </si>
-  <si>
-    <t>SHOVEL:341950400</t>
-  </si>
-  <si>
-    <t>SHOVEL:426749800</t>
-  </si>
-  <si>
-    <t>SHOVEL:528509100</t>
-  </si>
-  <si>
-    <t>SHOVEL:675042500</t>
-  </si>
-  <si>
-    <t>GEM:14</t>
-  </si>
-  <si>
-    <t>SHOVEL:850882600</t>
-  </si>
-  <si>
-    <t>SHOVEL:1061890700</t>
-  </si>
-  <si>
-    <t>SHOVEL:1315100400</t>
-  </si>
-  <si>
-    <t>SHOVEL:1679722300</t>
-  </si>
-  <si>
-    <t>SHOVEL:2117268600</t>
-  </si>
-  <si>
-    <t>SHOVEL:2642324200</t>
-  </si>
-  <si>
-    <t>GEM:15</t>
-  </si>
-  <si>
-    <t>SHOVEL:3272390900</t>
-  </si>
-  <si>
-    <t>SHOVEL:4179686900</t>
-  </si>
-  <si>
-    <t>SHOVEL:5268442100</t>
-  </si>
-  <si>
-    <t>SHOVEL:6574948300</t>
-  </si>
-  <si>
-    <t>SHOVEL:8142755800</t>
-  </si>
-  <si>
-    <t>GEM:17</t>
-  </si>
-  <si>
-    <t>GEM:19</t>
-  </si>
-  <si>
-    <t>GEM:22</t>
-  </si>
-  <si>
-    <t>GEM:26</t>
-  </si>
-  <si>
-    <t>GEM:30</t>
-  </si>
-  <si>
-    <t>GEM:34</t>
-  </si>
-  <si>
-    <t>GEM:40</t>
-  </si>
-  <si>
-    <t>GEM:47</t>
-  </si>
-  <si>
-    <t>GEM:55</t>
-  </si>
-  <si>
-    <t>GEM:65</t>
-  </si>
-  <si>
-    <t>GEM:77</t>
-  </si>
-  <si>
-    <t>GEM:92</t>
-  </si>
-  <si>
-    <t>GEM:109</t>
-  </si>
-  <si>
-    <t>GEM:130</t>
-  </si>
-  <si>
-    <t>GEM:154</t>
-  </si>
-  <si>
-    <t>GEM:184</t>
-  </si>
-  <si>
-    <t>GEM:220</t>
-  </si>
-  <si>
-    <t>GEM:263</t>
-  </si>
-  <si>
-    <t>GEM:314</t>
-  </si>
-  <si>
-    <t>GEM:376</t>
-  </si>
-  <si>
-    <t>GEM:450</t>
-  </si>
-  <si>
-    <t>GEM:539</t>
-  </si>
-  <si>
     <t>BoostID</t>
   </si>
   <si>
@@ -699,6 +381,9 @@
   </si>
   <si>
     <t>PriceBonus</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1066,13 +751,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D402" sqref="D402:D1000"/>
+    <sheetView topLeftCell="A994" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +1941,7 @@
         <v>96</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -2281,7 +1966,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2295,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2309,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2323,7 +2008,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -2337,7 +2022,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -2351,7 +2036,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -2365,7 +2050,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -2379,7 +2064,7 @@
         <v>313</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2393,7 +2078,7 @@
         <v>391</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2407,7 +2092,7 @@
         <v>489</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2421,7 +2106,7 @@
         <v>530</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2435,7 +2120,7 @@
         <v>571</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -2449,7 +2134,7 @@
         <v>612</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2463,7 +2148,7 @@
         <v>653</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -2477,7 +2162,7 @@
         <v>694</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2491,7 +2176,7 @@
         <v>735</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -2505,7 +2190,7 @@
         <v>776</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -2519,7 +2204,7 @@
         <v>817</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -2533,7 +2218,7 @@
         <v>858</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -2547,7 +2232,7 @@
         <v>899</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -2561,7 +2246,7 @@
         <v>940</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D23">
         <v>14</v>
@@ -2575,7 +2260,7 @@
         <v>981</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -2589,7 +2274,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -2603,7 +2288,7 @@
         <v>1063</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2617,7 +2302,7 @@
         <v>1104</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -2631,7 +2316,7 @@
         <v>1145</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -2645,7 +2330,7 @@
         <v>1186</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -2659,7 +2344,7 @@
         <v>1227</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -2673,7 +2358,7 @@
         <v>1268</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -2687,7 +2372,7 @@
         <v>1309</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -2701,7 +2386,7 @@
         <v>1350</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -2715,7 +2400,7 @@
         <v>1391</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -2729,7 +2414,7 @@
         <v>1432</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -2743,7 +2428,7 @@
         <v>1473</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2757,7 +2442,7 @@
         <v>1514</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D37">
         <v>17</v>
@@ -2771,7 +2456,7 @@
         <v>1555</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D38">
         <v>17</v>
@@ -2785,7 +2470,7 @@
         <v>1596</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -2799,7 +2484,7 @@
         <v>1637</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>17</v>
@@ -2813,7 +2498,7 @@
         <v>1678</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>17</v>
@@ -2827,7 +2512,7 @@
         <v>1719</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D42">
         <v>17</v>
@@ -2841,7 +2526,7 @@
         <v>1760</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D43">
         <v>17</v>
@@ -2855,7 +2540,7 @@
         <v>1801</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>17</v>
@@ -2869,7 +2554,7 @@
         <v>1842</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D45">
         <v>17</v>
@@ -2883,7 +2568,7 @@
         <v>1883</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D46">
         <v>17</v>
@@ -2897,7 +2582,7 @@
         <v>1924</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D47">
         <v>17</v>
@@ -2911,7 +2596,7 @@
         <v>1965</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D48">
         <v>17</v>
@@ -2925,7 +2610,7 @@
         <v>2006</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>17</v>
@@ -2939,7 +2624,7 @@
         <v>2047</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D50">
         <v>17</v>
@@ -2953,7 +2638,7 @@
         <v>2088</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D51">
         <v>17</v>
@@ -2967,7 +2652,7 @@
         <v>2129</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -2981,7 +2666,7 @@
         <v>2170</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D53">
         <v>18</v>
@@ -2995,7 +2680,7 @@
         <v>2211</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>18</v>
@@ -3009,7 +2694,7 @@
         <v>2252</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D55">
         <v>18</v>
@@ -3023,7 +2708,7 @@
         <v>2293</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>18</v>
@@ -3037,7 +2722,7 @@
         <v>2334</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D57">
         <v>18</v>
@@ -3051,7 +2736,7 @@
         <v>2375</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <v>18</v>
@@ -3065,7 +2750,7 @@
         <v>2416</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D59">
         <v>18</v>
@@ -3079,7 +2764,7 @@
         <v>2457</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <v>18</v>
@@ -3093,7 +2778,7 @@
         <v>2498</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>18</v>
@@ -3107,7 +2792,7 @@
         <v>2539</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D62">
         <v>19</v>
@@ -3135,7 +2820,7 @@
         <v>2621</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D64">
         <v>19</v>
@@ -3149,7 +2834,7 @@
         <v>2662</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D65">
         <v>19</v>
@@ -3163,7 +2848,7 @@
         <v>2703</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D66">
         <v>19</v>
@@ -3177,7 +2862,7 @@
         <v>2744</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D67">
         <v>19</v>
@@ -3191,7 +2876,7 @@
         <v>2785</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68">
         <v>19</v>
@@ -3205,7 +2890,7 @@
         <v>2826</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D69">
         <v>19</v>
@@ -3219,7 +2904,7 @@
         <v>2867</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D70">
         <v>19</v>
@@ -3233,7 +2918,7 @@
         <v>2908</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D71">
         <v>19</v>
@@ -3247,7 +2932,7 @@
         <v>2949</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D72">
         <v>20</v>
@@ -3261,7 +2946,7 @@
         <v>2990</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D73">
         <v>20</v>
@@ -3275,7 +2960,7 @@
         <v>3031</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -3289,7 +2974,7 @@
         <v>3072</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -3303,7 +2988,7 @@
         <v>3113</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -3317,7 +3002,7 @@
         <v>3154</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -3331,7 +3016,7 @@
         <v>3195</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D78">
         <v>20</v>
@@ -3345,7 +3030,7 @@
         <v>3236</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D79">
         <v>20</v>
@@ -3359,7 +3044,7 @@
         <v>3277</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -3373,7 +3058,7 @@
         <v>3318</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -3387,7 +3072,7 @@
         <v>3359</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -3401,7 +3086,7 @@
         <v>3400</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -3415,7 +3100,7 @@
         <v>3441</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D84">
         <v>20</v>
@@ -3429,7 +3114,7 @@
         <v>3482</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -3443,7 +3128,7 @@
         <v>3523</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -3457,7 +3142,7 @@
         <v>3564</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D87">
         <v>20</v>
@@ -3471,7 +3156,7 @@
         <v>3605</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -3485,7 +3170,7 @@
         <v>3646</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -3499,7 +3184,7 @@
         <v>3687</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -3513,7 +3198,7 @@
         <v>3728</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -3527,7 +3212,7 @@
         <v>3769</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D92">
         <v>22</v>
@@ -3541,7 +3226,7 @@
         <v>3810</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D93">
         <v>22</v>
@@ -3555,7 +3240,7 @@
         <v>3851</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D94">
         <v>22</v>
@@ -3569,7 +3254,7 @@
         <v>3892</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D95">
         <v>22</v>
@@ -3583,7 +3268,7 @@
         <v>3933</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D96">
         <v>22</v>
@@ -3597,7 +3282,7 @@
         <v>3974</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D97">
         <v>22</v>
@@ -3611,7 +3296,7 @@
         <v>4015</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D98">
         <v>22</v>
@@ -3625,7 +3310,7 @@
         <v>4056</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D99">
         <v>22</v>
@@ -3639,7 +3324,7 @@
         <v>4097</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D100">
         <v>22</v>
@@ -3653,7 +3338,7 @@
         <v>4138</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D101">
         <v>22</v>
@@ -3667,7 +3352,7 @@
         <v>4179</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D102">
         <v>25</v>
@@ -3681,7 +3366,7 @@
         <v>4220</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D103">
         <v>25</v>
@@ -3695,7 +3380,7 @@
         <v>4261</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D104">
         <v>25</v>
@@ -3709,7 +3394,7 @@
         <v>4302</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D105">
         <v>25</v>
@@ -3723,7 +3408,7 @@
         <v>4343</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D106">
         <v>25</v>
@@ -3737,7 +3422,7 @@
         <v>4384</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D107">
         <v>25</v>
@@ -3751,7 +3436,7 @@
         <v>4425</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D108">
         <v>25</v>
@@ -3765,7 +3450,7 @@
         <v>4466</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D109">
         <v>25</v>
@@ -3779,7 +3464,7 @@
         <v>4507</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D110">
         <v>25</v>
@@ -3793,7 +3478,7 @@
         <v>4548</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D111">
         <v>25</v>
@@ -3807,7 +3492,7 @@
         <v>4589</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D112">
         <v>25</v>
@@ -3821,7 +3506,7 @@
         <v>4630</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D113">
         <v>25</v>
@@ -3835,7 +3520,7 @@
         <v>4671</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D114">
         <v>25</v>
@@ -3849,7 +3534,7 @@
         <v>4712</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D115">
         <v>25</v>
@@ -3863,7 +3548,7 @@
         <v>4753</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D116">
         <v>25</v>
@@ -3877,7 +3562,7 @@
         <v>4794</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D117">
         <v>25</v>
@@ -3891,7 +3576,7 @@
         <v>4835</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D118">
         <v>25</v>
@@ -3905,7 +3590,7 @@
         <v>4876</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D119">
         <v>25</v>
@@ -3919,7 +3604,7 @@
         <v>4917</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D120">
         <v>25</v>
@@ -3933,7 +3618,7 @@
         <v>4958</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D121">
         <v>25</v>
@@ -3947,7 +3632,7 @@
         <v>4999</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D122">
         <v>25</v>
@@ -3961,7 +3646,7 @@
         <v>5040</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D123">
         <v>25</v>
@@ -3975,7 +3660,7 @@
         <v>5081</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D124">
         <v>25</v>
@@ -3989,7 +3674,7 @@
         <v>5122</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D125">
         <v>25</v>
@@ -4003,7 +3688,7 @@
         <v>5163</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D126">
         <v>25</v>
@@ -4017,7 +3702,7 @@
         <v>5204</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D127">
         <v>25</v>
@@ -4031,7 +3716,7 @@
         <v>5245</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D128">
         <v>25</v>
@@ -4045,7 +3730,7 @@
         <v>5286</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -4059,7 +3744,7 @@
         <v>5327</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D130">
         <v>25</v>
@@ -4073,7 +3758,7 @@
         <v>5368</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D131">
         <v>25</v>
@@ -4087,7 +3772,7 @@
         <v>5409</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D132">
         <v>25</v>
@@ -4101,7 +3786,7 @@
         <v>5450</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D133">
         <v>25</v>
@@ -4115,7 +3800,7 @@
         <v>5491</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D134">
         <v>25</v>
@@ -4129,7 +3814,7 @@
         <v>5532</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D135">
         <v>25</v>
@@ -4143,7 +3828,7 @@
         <v>5573</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D136">
         <v>25</v>
@@ -4157,7 +3842,7 @@
         <v>5614</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D137">
         <v>25</v>
@@ -4171,7 +3856,7 @@
         <v>5655</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D138">
         <v>25</v>
@@ -4185,7 +3870,7 @@
         <v>5696</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D139">
         <v>25</v>
@@ -4199,7 +3884,7 @@
         <v>5737</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D140">
         <v>25</v>
@@ -4213,7 +3898,7 @@
         <v>5778</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D141">
         <v>25</v>
@@ -4227,7 +3912,7 @@
         <v>5819</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D142">
         <v>25</v>
@@ -4241,7 +3926,7 @@
         <v>5860</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D143">
         <v>25</v>
@@ -4255,7 +3940,7 @@
         <v>5901</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D144">
         <v>25</v>
@@ -4269,7 +3954,7 @@
         <v>5942</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D145">
         <v>25</v>
@@ -4283,7 +3968,7 @@
         <v>5983</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -4297,7 +3982,7 @@
         <v>6024</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D147">
         <v>25</v>
@@ -4311,7 +3996,7 @@
         <v>6065</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D148">
         <v>25</v>
@@ -4325,7 +4010,7 @@
         <v>6106</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D149">
         <v>25</v>
@@ -4339,7 +4024,7 @@
         <v>6147</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D150">
         <v>25</v>
@@ -4353,7 +4038,7 @@
         <v>6188</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D151">
         <v>25</v>
@@ -4367,7 +4052,7 @@
         <v>6229</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D152">
         <v>25</v>
@@ -4381,7 +4066,7 @@
         <v>6270</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D153">
         <v>25</v>
@@ -4395,7 +4080,7 @@
         <v>6311</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D154">
         <v>25</v>
@@ -4409,7 +4094,7 @@
         <v>6352</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D155">
         <v>25</v>
@@ -4423,7 +4108,7 @@
         <v>6393</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D156">
         <v>25</v>
@@ -4437,7 +4122,7 @@
         <v>6434</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D157">
         <v>25</v>
@@ -4451,7 +4136,7 @@
         <v>6475</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D158">
         <v>25</v>
@@ -4465,7 +4150,7 @@
         <v>6516</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D159">
         <v>25</v>
@@ -4479,7 +4164,7 @@
         <v>6557</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D160">
         <v>25</v>
@@ -4493,7 +4178,7 @@
         <v>6598</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D161">
         <v>25</v>
@@ -4507,7 +4192,7 @@
         <v>6639</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D162">
         <v>25</v>
@@ -4521,7 +4206,7 @@
         <v>6680</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D163">
         <v>25</v>
@@ -4535,7 +4220,7 @@
         <v>6721</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D164">
         <v>25</v>
@@ -4549,7 +4234,7 @@
         <v>6762</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D165">
         <v>25</v>
@@ -4563,7 +4248,7 @@
         <v>6803</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D166">
         <v>25</v>
@@ -4577,7 +4262,7 @@
         <v>6844</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D167">
         <v>25</v>
@@ -4591,7 +4276,7 @@
         <v>6885</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D168">
         <v>25</v>
@@ -4605,7 +4290,7 @@
         <v>6926</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D169">
         <v>25</v>
@@ -4619,7 +4304,7 @@
         <v>6967</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D170">
         <v>25</v>
@@ -4633,7 +4318,7 @@
         <v>7008</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D171">
         <v>25</v>
@@ -4647,7 +4332,7 @@
         <v>7049</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D172">
         <v>25</v>
@@ -4661,7 +4346,7 @@
         <v>7090</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D173">
         <v>25</v>
@@ -4675,7 +4360,7 @@
         <v>7131</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D174">
         <v>25</v>
@@ -4689,7 +4374,7 @@
         <v>7172</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D175">
         <v>25</v>
@@ -4703,7 +4388,7 @@
         <v>7213</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D176">
         <v>25</v>
@@ -4717,7 +4402,7 @@
         <v>7254</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D177">
         <v>25</v>
@@ -4731,7 +4416,7 @@
         <v>7295</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D178">
         <v>25</v>
@@ -4745,7 +4430,7 @@
         <v>7336</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D179">
         <v>25</v>
@@ -4759,7 +4444,7 @@
         <v>7377</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D180">
         <v>25</v>
@@ -4773,7 +4458,7 @@
         <v>7418</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D181">
         <v>25</v>
@@ -4787,7 +4472,7 @@
         <v>7459</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D182">
         <v>25</v>
@@ -4801,7 +4486,7 @@
         <v>7500</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D183">
         <v>25</v>
@@ -4815,7 +4500,7 @@
         <v>7541</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D184">
         <v>25</v>
@@ -4829,7 +4514,7 @@
         <v>7582</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D185">
         <v>25</v>
@@ -4843,7 +4528,7 @@
         <v>7623</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D186">
         <v>25</v>
@@ -4857,7 +4542,7 @@
         <v>7664</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D187">
         <v>25</v>
@@ -4871,7 +4556,7 @@
         <v>7705</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D188">
         <v>25</v>
@@ -4885,7 +4570,7 @@
         <v>7746</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D189">
         <v>25</v>
@@ -4899,7 +4584,7 @@
         <v>7787</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D190">
         <v>25</v>
@@ -4913,7 +4598,7 @@
         <v>7828</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D191">
         <v>25</v>
@@ -4927,7 +4612,7 @@
         <v>7869</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D192">
         <v>25</v>
@@ -4941,7 +4626,7 @@
         <v>7910</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D193">
         <v>25</v>
@@ -4955,7 +4640,7 @@
         <v>7951</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D194">
         <v>25</v>
@@ -4969,7 +4654,7 @@
         <v>7992</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D195">
         <v>25</v>
@@ -4983,7 +4668,7 @@
         <v>8033</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D196">
         <v>25</v>
@@ -4997,7 +4682,7 @@
         <v>8074</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D197">
         <v>25</v>
@@ -5011,7 +4696,7 @@
         <v>8115</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D198">
         <v>25</v>
@@ -5025,7 +4710,7 @@
         <v>8156</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D199">
         <v>25</v>
@@ -5039,7 +4724,7 @@
         <v>8197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D200">
         <v>25</v>
@@ -5053,7 +4738,7 @@
         <v>8238</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D201">
         <v>25</v>
@@ -5067,7 +4752,7 @@
         <v>8279</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D202">
         <v>25</v>
@@ -5081,7 +4766,7 @@
         <v>8320</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D203">
         <v>25</v>
@@ -5095,7 +4780,7 @@
         <v>8361</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D204">
         <v>25</v>
@@ -5109,7 +4794,7 @@
         <v>8402</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D205">
         <v>25</v>
@@ -5123,7 +4808,7 @@
         <v>8443</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D206">
         <v>25</v>
@@ -5137,7 +4822,7 @@
         <v>8484</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D207">
         <v>25</v>
@@ -5151,7 +4836,7 @@
         <v>8525</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D208">
         <v>25</v>
@@ -5165,7 +4850,7 @@
         <v>8566</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D209">
         <v>25</v>
@@ -5179,7 +4864,7 @@
         <v>8607</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D210">
         <v>25</v>
@@ -5193,7 +4878,7 @@
         <v>8648</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D211">
         <v>25</v>
@@ -5207,7 +4892,7 @@
         <v>8689</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D212">
         <v>25</v>
@@ -5221,7 +4906,7 @@
         <v>8730</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D213">
         <v>25</v>
@@ -5235,7 +4920,7 @@
         <v>8771</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D214">
         <v>25</v>
@@ -5249,7 +4934,7 @@
         <v>8812</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D215">
         <v>25</v>
@@ -5263,7 +4948,7 @@
         <v>8853</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D216">
         <v>25</v>
@@ -5277,7 +4962,7 @@
         <v>8894</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D217">
         <v>25</v>
@@ -5291,7 +4976,7 @@
         <v>8935</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="D218">
         <v>25</v>
@@ -5305,7 +4990,7 @@
         <v>8976</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D219">
         <v>25</v>
@@ -5319,7 +5004,7 @@
         <v>9017</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D220">
         <v>25</v>
@@ -5333,7 +5018,7 @@
         <v>9058</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D221">
         <v>25</v>
@@ -5347,7 +5032,7 @@
         <v>9099</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D222">
         <v>25</v>
@@ -5361,7 +5046,7 @@
         <v>9140</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D223">
         <v>25</v>
@@ -5375,7 +5060,7 @@
         <v>9181</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D224">
         <v>25</v>
@@ -5389,7 +5074,7 @@
         <v>9222</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D225">
         <v>25</v>
@@ -5403,7 +5088,7 @@
         <v>9263</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D226">
         <v>25</v>
@@ -5417,7 +5102,7 @@
         <v>9304</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D227">
         <v>25</v>
@@ -5431,7 +5116,7 @@
         <v>9345</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D228">
         <v>25</v>
@@ -5445,7 +5130,7 @@
         <v>9386</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D229">
         <v>25</v>
@@ -5459,7 +5144,7 @@
         <v>9427</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D230">
         <v>25</v>
@@ -5473,7 +5158,7 @@
         <v>9468</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D231">
         <v>25</v>
@@ -5487,7 +5172,7 @@
         <v>9509</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D232">
         <v>25</v>
@@ -5501,7 +5186,7 @@
         <v>9550</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D233">
         <v>25</v>
@@ -5515,7 +5200,7 @@
         <v>9591</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D234">
         <v>25</v>
@@ -5529,7 +5214,7 @@
         <v>9632</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D235">
         <v>25</v>
@@ -5543,7 +5228,7 @@
         <v>9673</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D236">
         <v>25</v>
@@ -5557,7 +5242,7 @@
         <v>9714</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D237">
         <v>25</v>
@@ -5571,7 +5256,7 @@
         <v>9755</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D238">
         <v>25</v>
@@ -5585,7 +5270,7 @@
         <v>9796</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D239">
         <v>25</v>
@@ -5599,7 +5284,7 @@
         <v>9837</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D240">
         <v>25</v>
@@ -5613,7 +5298,7 @@
         <v>9878</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D241">
         <v>25</v>
@@ -5627,7 +5312,7 @@
         <v>9919</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D242">
         <v>25</v>
@@ -5641,7 +5326,7 @@
         <v>9960</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D243">
         <v>25</v>
@@ -5655,7 +5340,7 @@
         <v>10001</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D244">
         <v>25</v>
@@ -5669,7 +5354,7 @@
         <v>10042</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D245">
         <v>25</v>
@@ -5683,7 +5368,7 @@
         <v>10083</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D246">
         <v>25</v>
@@ -5697,7 +5382,7 @@
         <v>10124</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D247">
         <v>25</v>
@@ -5711,7 +5396,7 @@
         <v>10165</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D248">
         <v>25</v>
@@ -5725,7 +5410,7 @@
         <v>10206</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D249">
         <v>25</v>
@@ -5739,7 +5424,7 @@
         <v>10247</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D250">
         <v>25</v>
@@ -5753,7 +5438,7 @@
         <v>10288</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D251">
         <v>25</v>
@@ -5767,7 +5452,7 @@
         <v>10329</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D252">
         <v>25</v>
@@ -5781,7 +5466,7 @@
         <v>10370</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D253">
         <v>25</v>
@@ -5795,7 +5480,7 @@
         <v>10411</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D254">
         <v>25</v>
@@ -5809,7 +5494,7 @@
         <v>10452</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D255">
         <v>25</v>
@@ -5823,7 +5508,7 @@
         <v>10493</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D256">
         <v>25</v>
@@ -5837,7 +5522,7 @@
         <v>10534</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D257">
         <v>25</v>
@@ -5851,7 +5536,7 @@
         <v>10575</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D258">
         <v>25</v>
@@ -5865,7 +5550,7 @@
         <v>10616</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D259">
         <v>25</v>
@@ -5879,7 +5564,7 @@
         <v>10657</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D260">
         <v>25</v>
@@ -5893,7 +5578,7 @@
         <v>10698</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D261">
         <v>25</v>
@@ -5907,7 +5592,7 @@
         <v>10739</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D262">
         <v>25</v>
@@ -5921,7 +5606,7 @@
         <v>10780</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D263">
         <v>25</v>
@@ -5935,7 +5620,7 @@
         <v>10821</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D264">
         <v>25</v>
@@ -5949,7 +5634,7 @@
         <v>10862</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D265">
         <v>25</v>
@@ -5963,7 +5648,7 @@
         <v>10903</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D266">
         <v>25</v>
@@ -5977,7 +5662,7 @@
         <v>10944</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D267">
         <v>25</v>
@@ -5991,7 +5676,7 @@
         <v>10985</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="D268">
         <v>25</v>
@@ -6005,7 +5690,7 @@
         <v>11026</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D269">
         <v>25</v>
@@ -6019,7 +5704,7 @@
         <v>11067</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D270">
         <v>25</v>
@@ -6033,7 +5718,7 @@
         <v>11108</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D271">
         <v>25</v>
@@ -6047,7 +5732,7 @@
         <v>11149</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D272">
         <v>25</v>
@@ -6061,7 +5746,7 @@
         <v>11190</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="D273">
         <v>25</v>
@@ -6075,7 +5760,7 @@
         <v>11231</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D274">
         <v>25</v>
@@ -6089,7 +5774,7 @@
         <v>11272</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D275">
         <v>25</v>
@@ -6103,7 +5788,7 @@
         <v>11313</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D276">
         <v>25</v>
@@ -6117,7 +5802,7 @@
         <v>11354</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D277">
         <v>25</v>
@@ -6131,7 +5816,7 @@
         <v>11395</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D278">
         <v>25</v>
@@ -6145,7 +5830,7 @@
         <v>11436</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D279">
         <v>25</v>
@@ -6159,7 +5844,7 @@
         <v>11477</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D280">
         <v>25</v>
@@ -6173,7 +5858,7 @@
         <v>11518</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D281">
         <v>25</v>
@@ -6187,7 +5872,7 @@
         <v>11559</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D282">
         <v>25</v>
@@ -6201,7 +5886,7 @@
         <v>11600</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D283">
         <v>25</v>
@@ -6215,7 +5900,7 @@
         <v>11641</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D284">
         <v>25</v>
@@ -6229,7 +5914,7 @@
         <v>11682</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D285">
         <v>25</v>
@@ -6243,7 +5928,7 @@
         <v>11723</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D286">
         <v>25</v>
@@ -6257,7 +5942,7 @@
         <v>11764</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D287">
         <v>25</v>
@@ -6271,7 +5956,7 @@
         <v>11805</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="D288">
         <v>25</v>
@@ -6285,7 +5970,7 @@
         <v>11846</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D289">
         <v>25</v>
@@ -6299,7 +5984,7 @@
         <v>11887</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D290">
         <v>25</v>
@@ -6313,7 +5998,7 @@
         <v>11928</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D291">
         <v>25</v>
@@ -6327,7 +6012,7 @@
         <v>11969</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D292">
         <v>25</v>
@@ -6341,7 +6026,7 @@
         <v>12010</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D293">
         <v>25</v>
@@ -6355,7 +6040,7 @@
         <v>12051</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D294">
         <v>25</v>
@@ -6369,7 +6054,7 @@
         <v>12092</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D295">
         <v>25</v>
@@ -6383,7 +6068,7 @@
         <v>12133</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D296">
         <v>25</v>
@@ -6397,7 +6082,7 @@
         <v>12174</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D297">
         <v>25</v>
@@ -6411,7 +6096,7 @@
         <v>12215</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D298">
         <v>25</v>
@@ -6425,7 +6110,7 @@
         <v>12256</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D299">
         <v>25</v>
@@ -6439,7 +6124,7 @@
         <v>12297</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D300">
         <v>25</v>
@@ -6453,7 +6138,7 @@
         <v>12338</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D301">
         <v>25</v>
@@ -6467,7 +6152,7 @@
         <v>12379</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D302">
         <v>30</v>
@@ -6481,7 +6166,7 @@
         <v>12420</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="D303">
         <v>30</v>
@@ -6495,7 +6180,7 @@
         <v>12461</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D304">
         <v>30</v>
@@ -6509,7 +6194,7 @@
         <v>12502</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D305">
         <v>30</v>
@@ -6523,7 +6208,7 @@
         <v>12543</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D306">
         <v>30</v>
@@ -6537,7 +6222,7 @@
         <v>12584</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D307">
         <v>30</v>
@@ -6551,7 +6236,7 @@
         <v>12625</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D308">
         <v>30</v>
@@ -6565,7 +6250,7 @@
         <v>12666</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D309">
         <v>30</v>
@@ -6579,7 +6264,7 @@
         <v>12707</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D310">
         <v>30</v>
@@ -6593,7 +6278,7 @@
         <v>12748</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D311">
         <v>30</v>
@@ -6607,7 +6292,7 @@
         <v>12789</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D312">
         <v>30</v>
@@ -6621,7 +6306,7 @@
         <v>12830</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D313">
         <v>30</v>
@@ -6635,7 +6320,7 @@
         <v>12871</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D314">
         <v>30</v>
@@ -6649,7 +6334,7 @@
         <v>12912</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D315">
         <v>30</v>
@@ -6663,7 +6348,7 @@
         <v>12953</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D316">
         <v>30</v>
@@ -6677,7 +6362,7 @@
         <v>12994</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D317">
         <v>30</v>
@@ -6691,7 +6376,7 @@
         <v>13035</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="D318">
         <v>30</v>
@@ -6705,7 +6390,7 @@
         <v>13076</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D319">
         <v>30</v>
@@ -6719,7 +6404,7 @@
         <v>13117</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D320">
         <v>30</v>
@@ -6733,7 +6418,7 @@
         <v>13158</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D321">
         <v>30</v>
@@ -6747,7 +6432,7 @@
         <v>13199</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D322">
         <v>30</v>
@@ -6761,7 +6446,7 @@
         <v>13240</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D323">
         <v>30</v>
@@ -6775,7 +6460,7 @@
         <v>13281</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D324">
         <v>30</v>
@@ -6789,7 +6474,7 @@
         <v>13322</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D325">
         <v>30</v>
@@ -6803,7 +6488,7 @@
         <v>13363</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D326">
         <v>30</v>
@@ -6817,7 +6502,7 @@
         <v>13404</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D327">
         <v>30</v>
@@ -6831,7 +6516,7 @@
         <v>13445</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="D328">
         <v>30</v>
@@ -6845,7 +6530,7 @@
         <v>13486</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D329">
         <v>30</v>
@@ -6859,7 +6544,7 @@
         <v>13527</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D330">
         <v>30</v>
@@ -6873,7 +6558,7 @@
         <v>13568</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D331">
         <v>30</v>
@@ -6887,7 +6572,7 @@
         <v>13609</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D332">
         <v>30</v>
@@ -6901,7 +6586,7 @@
         <v>13650</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="D333">
         <v>30</v>
@@ -6915,7 +6600,7 @@
         <v>13691</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D334">
         <v>30</v>
@@ -6929,7 +6614,7 @@
         <v>13732</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D335">
         <v>30</v>
@@ -6943,7 +6628,7 @@
         <v>13773</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D336">
         <v>30</v>
@@ -6957,7 +6642,7 @@
         <v>13814</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D337">
         <v>30</v>
@@ -6971,7 +6656,7 @@
         <v>13855</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="D338">
         <v>30</v>
@@ -6985,7 +6670,7 @@
         <v>13896</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D339">
         <v>30</v>
@@ -6999,7 +6684,7 @@
         <v>13937</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D340">
         <v>30</v>
@@ -7013,7 +6698,7 @@
         <v>13978</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D341">
         <v>30</v>
@@ -7027,7 +6712,7 @@
         <v>14019</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D342">
         <v>30</v>
@@ -7041,7 +6726,7 @@
         <v>14060</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D343">
         <v>30</v>
@@ -7055,7 +6740,7 @@
         <v>14101</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D344">
         <v>30</v>
@@ -7069,7 +6754,7 @@
         <v>14142</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D345">
         <v>30</v>
@@ -7083,7 +6768,7 @@
         <v>14183</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D346">
         <v>30</v>
@@ -7097,7 +6782,7 @@
         <v>14224</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D347">
         <v>30</v>
@@ -7111,7 +6796,7 @@
         <v>14265</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D348">
         <v>30</v>
@@ -7125,7 +6810,7 @@
         <v>14306</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D349">
         <v>30</v>
@@ -7139,7 +6824,7 @@
         <v>14347</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D350">
         <v>30</v>
@@ -7153,7 +6838,7 @@
         <v>14388</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D351">
         <v>30</v>
@@ -7167,7 +6852,7 @@
         <v>14429</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D352">
         <v>30</v>
@@ -7181,7 +6866,7 @@
         <v>14470</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D353">
         <v>30</v>
@@ -7195,7 +6880,7 @@
         <v>14511</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D354">
         <v>30</v>
@@ -7209,7 +6894,7 @@
         <v>14552</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D355">
         <v>30</v>
@@ -7223,7 +6908,7 @@
         <v>14593</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D356">
         <v>30</v>
@@ -7237,7 +6922,7 @@
         <v>14634</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D357">
         <v>30</v>
@@ -7251,7 +6936,7 @@
         <v>14675</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D358">
         <v>30</v>
@@ -7265,7 +6950,7 @@
         <v>14716</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D359">
         <v>30</v>
@@ -7279,7 +6964,7 @@
         <v>14757</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D360">
         <v>30</v>
@@ -7293,7 +6978,7 @@
         <v>14798</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D361">
         <v>30</v>
@@ -7307,7 +6992,7 @@
         <v>14839</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D362">
         <v>30</v>
@@ -7321,7 +7006,7 @@
         <v>14880</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D363">
         <v>30</v>
@@ -7335,7 +7020,7 @@
         <v>14921</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D364">
         <v>30</v>
@@ -7349,7 +7034,7 @@
         <v>14962</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D365">
         <v>30</v>
@@ -7363,7 +7048,7 @@
         <v>15003</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D366">
         <v>30</v>
@@ -7377,7 +7062,7 @@
         <v>15044</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D367">
         <v>30</v>
@@ -7391,7 +7076,7 @@
         <v>15085</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D368">
         <v>30</v>
@@ -7405,7 +7090,7 @@
         <v>15126</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D369">
         <v>30</v>
@@ -7419,7 +7104,7 @@
         <v>15167</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D370">
         <v>30</v>
@@ -7433,7 +7118,7 @@
         <v>15208</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D371">
         <v>30</v>
@@ -7447,7 +7132,7 @@
         <v>15249</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D372">
         <v>30</v>
@@ -7461,7 +7146,7 @@
         <v>15290</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D373">
         <v>30</v>
@@ -7475,7 +7160,7 @@
         <v>15331</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D374">
         <v>30</v>
@@ -7489,7 +7174,7 @@
         <v>15372</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D375">
         <v>30</v>
@@ -7503,7 +7188,7 @@
         <v>15413</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D376">
         <v>30</v>
@@ -7517,7 +7202,7 @@
         <v>15454</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D377">
         <v>30</v>
@@ -7531,7 +7216,7 @@
         <v>15495</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D378">
         <v>30</v>
@@ -7545,7 +7230,7 @@
         <v>15536</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D379">
         <v>30</v>
@@ -7559,7 +7244,7 @@
         <v>15577</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D380">
         <v>30</v>
@@ -7573,7 +7258,7 @@
         <v>15618</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D381">
         <v>30</v>
@@ -7587,7 +7272,7 @@
         <v>15659</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D382">
         <v>30</v>
@@ -7601,7 +7286,7 @@
         <v>15700</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D383">
         <v>30</v>
@@ -7615,7 +7300,7 @@
         <v>15741</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D384">
         <v>30</v>
@@ -7629,7 +7314,7 @@
         <v>15782</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D385">
         <v>30</v>
@@ -7643,7 +7328,7 @@
         <v>15823</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D386">
         <v>30</v>
@@ -7657,7 +7342,7 @@
         <v>15864</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D387">
         <v>30</v>
@@ -7671,7 +7356,7 @@
         <v>15905</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D388">
         <v>30</v>
@@ -7685,7 +7370,7 @@
         <v>15946</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D389">
         <v>30</v>
@@ -7699,7 +7384,7 @@
         <v>15987</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D390">
         <v>30</v>
@@ -7713,7 +7398,7 @@
         <v>16028</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D391">
         <v>30</v>
@@ -7727,7 +7412,7 @@
         <v>16069</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D392">
         <v>30</v>
@@ -7741,7 +7426,7 @@
         <v>16110</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D393">
         <v>30</v>
@@ -7755,7 +7440,7 @@
         <v>16151</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D394">
         <v>30</v>
@@ -7769,7 +7454,7 @@
         <v>16192</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D395">
         <v>30</v>
@@ -7783,7 +7468,7 @@
         <v>16233</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D396">
         <v>30</v>
@@ -7797,7 +7482,7 @@
         <v>16274</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D397">
         <v>30</v>
@@ -7811,7 +7496,7 @@
         <v>16315</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D398">
         <v>30</v>
@@ -7825,7 +7510,7 @@
         <v>16356</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D399">
         <v>30</v>
@@ -7839,7 +7524,7 @@
         <v>16397</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D400">
         <v>30</v>
@@ -7853,7 +7538,7 @@
         <v>16438</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D401">
         <v>30</v>
@@ -7867,7 +7552,7 @@
         <v>16479</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D402">
         <v>35</v>
@@ -7881,7 +7566,7 @@
         <v>16520</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D403">
         <v>35</v>
@@ -7895,7 +7580,7 @@
         <v>16561</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D404">
         <v>35</v>
@@ -7909,7 +7594,7 @@
         <v>16602</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D405">
         <v>35</v>
@@ -7923,7 +7608,7 @@
         <v>16643</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D406">
         <v>35</v>
@@ -7937,7 +7622,7 @@
         <v>16684</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D407">
         <v>35</v>
@@ -7951,7 +7636,7 @@
         <v>16725</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D408">
         <v>35</v>
@@ -7965,7 +7650,7 @@
         <v>16766</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D409">
         <v>35</v>
@@ -7979,7 +7664,7 @@
         <v>16807</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D410">
         <v>35</v>
@@ -7993,7 +7678,7 @@
         <v>16848</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D411">
         <v>35</v>
@@ -8007,7 +7692,7 @@
         <v>16889</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D412">
         <v>35</v>
@@ -8021,7 +7706,7 @@
         <v>16930</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D413">
         <v>35</v>
@@ -8035,7 +7720,7 @@
         <v>16971</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D414">
         <v>35</v>
@@ -8049,7 +7734,7 @@
         <v>17012</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D415">
         <v>35</v>
@@ -8063,7 +7748,7 @@
         <v>17053</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D416">
         <v>35</v>
@@ -8077,7 +7762,7 @@
         <v>17094</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D417">
         <v>35</v>
@@ -8091,7 +7776,7 @@
         <v>17135</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D418">
         <v>35</v>
@@ -8105,7 +7790,7 @@
         <v>17176</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D419">
         <v>35</v>
@@ -8119,7 +7804,7 @@
         <v>17217</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D420">
         <v>35</v>
@@ -8133,7 +7818,7 @@
         <v>17258</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D421">
         <v>35</v>
@@ -8147,7 +7832,7 @@
         <v>17299</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D422">
         <v>35</v>
@@ -8161,7 +7846,7 @@
         <v>17340</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D423">
         <v>35</v>
@@ -8175,7 +7860,7 @@
         <v>17381</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D424">
         <v>35</v>
@@ -8189,7 +7874,7 @@
         <v>17422</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D425">
         <v>35</v>
@@ -8203,7 +7888,7 @@
         <v>17463</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D426">
         <v>35</v>
@@ -8217,7 +7902,7 @@
         <v>17504</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D427">
         <v>35</v>
@@ -8231,7 +7916,7 @@
         <v>17545</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D428">
         <v>35</v>
@@ -8245,7 +7930,7 @@
         <v>17586</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D429">
         <v>35</v>
@@ -8259,7 +7944,7 @@
         <v>17627</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D430">
         <v>35</v>
@@ -8273,7 +7958,7 @@
         <v>17668</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D431">
         <v>35</v>
@@ -8287,7 +7972,7 @@
         <v>17709</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D432">
         <v>35</v>
@@ -8301,7 +7986,7 @@
         <v>17750</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D433">
         <v>35</v>
@@ -8315,7 +8000,7 @@
         <v>17791</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D434">
         <v>35</v>
@@ -8329,7 +8014,7 @@
         <v>17832</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D435">
         <v>35</v>
@@ -8343,7 +8028,7 @@
         <v>17873</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D436">
         <v>35</v>
@@ -8357,7 +8042,7 @@
         <v>17914</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D437">
         <v>35</v>
@@ -8371,7 +8056,7 @@
         <v>17955</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D438">
         <v>35</v>
@@ -8385,7 +8070,7 @@
         <v>17996</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D439">
         <v>35</v>
@@ -8399,7 +8084,7 @@
         <v>18037</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D440">
         <v>35</v>
@@ -8413,7 +8098,7 @@
         <v>18078</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D441">
         <v>35</v>
@@ -8427,7 +8112,7 @@
         <v>18119</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D442">
         <v>35</v>
@@ -8441,7 +8126,7 @@
         <v>18160</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D443">
         <v>35</v>
@@ -8455,7 +8140,7 @@
         <v>18201</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D444">
         <v>35</v>
@@ -8469,7 +8154,7 @@
         <v>18242</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D445">
         <v>35</v>
@@ -8483,7 +8168,7 @@
         <v>18283</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D446">
         <v>35</v>
@@ -8497,7 +8182,7 @@
         <v>18324</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D447">
         <v>35</v>
@@ -8511,7 +8196,7 @@
         <v>18365</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D448">
         <v>35</v>
@@ -8525,7 +8210,7 @@
         <v>18406</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D449">
         <v>35</v>
@@ -8539,7 +8224,7 @@
         <v>18447</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D450">
         <v>35</v>
@@ -8553,7 +8238,7 @@
         <v>18488</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D451">
         <v>35</v>
@@ -8567,7 +8252,7 @@
         <v>18529</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D452">
         <v>35</v>
@@ -8581,7 +8266,7 @@
         <v>18570</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D453">
         <v>35</v>
@@ -8595,7 +8280,7 @@
         <v>18611</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D454">
         <v>35</v>
@@ -8609,7 +8294,7 @@
         <v>18652</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D455">
         <v>35</v>
@@ -8623,7 +8308,7 @@
         <v>18693</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D456">
         <v>35</v>
@@ -8637,7 +8322,7 @@
         <v>18734</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D457">
         <v>35</v>
@@ -8651,7 +8336,7 @@
         <v>18775</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D458">
         <v>35</v>
@@ -8665,7 +8350,7 @@
         <v>18816</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D459">
         <v>35</v>
@@ -8679,7 +8364,7 @@
         <v>18857</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D460">
         <v>35</v>
@@ -8693,7 +8378,7 @@
         <v>18898</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D461">
         <v>35</v>
@@ -8707,7 +8392,7 @@
         <v>18939</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D462">
         <v>35</v>
@@ -8721,7 +8406,7 @@
         <v>18980</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D463">
         <v>35</v>
@@ -8735,7 +8420,7 @@
         <v>19021</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D464">
         <v>35</v>
@@ -8749,7 +8434,7 @@
         <v>19062</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D465">
         <v>35</v>
@@ -8763,7 +8448,7 @@
         <v>19103</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D466">
         <v>35</v>
@@ -8777,7 +8462,7 @@
         <v>19144</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D467">
         <v>35</v>
@@ -8791,7 +8476,7 @@
         <v>19185</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D468">
         <v>35</v>
@@ -8805,7 +8490,7 @@
         <v>19226</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D469">
         <v>35</v>
@@ -8819,7 +8504,7 @@
         <v>19267</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D470">
         <v>35</v>
@@ -8833,7 +8518,7 @@
         <v>19308</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D471">
         <v>35</v>
@@ -8847,7 +8532,7 @@
         <v>19349</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D472">
         <v>35</v>
@@ -8861,7 +8546,7 @@
         <v>19390</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D473">
         <v>35</v>
@@ -8875,7 +8560,7 @@
         <v>19431</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D474">
         <v>35</v>
@@ -8889,7 +8574,7 @@
         <v>19472</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D475">
         <v>35</v>
@@ -8903,7 +8588,7 @@
         <v>19513</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D476">
         <v>35</v>
@@ -8917,7 +8602,7 @@
         <v>19554</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D477">
         <v>35</v>
@@ -8931,7 +8616,7 @@
         <v>19595</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D478">
         <v>35</v>
@@ -8945,7 +8630,7 @@
         <v>19636</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D479">
         <v>35</v>
@@ -8959,7 +8644,7 @@
         <v>19677</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D480">
         <v>35</v>
@@ -8973,7 +8658,7 @@
         <v>19718</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D481">
         <v>35</v>
@@ -8987,7 +8672,7 @@
         <v>19759</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D482">
         <v>35</v>
@@ -9001,7 +8686,7 @@
         <v>19800</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D483">
         <v>35</v>
@@ -9015,7 +8700,7 @@
         <v>19841</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D484">
         <v>35</v>
@@ -9029,7 +8714,7 @@
         <v>19882</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D485">
         <v>35</v>
@@ -9043,7 +8728,7 @@
         <v>19923</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D486">
         <v>35</v>
@@ -9057,7 +8742,7 @@
         <v>19964</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D487">
         <v>35</v>
@@ -9071,7 +8756,7 @@
         <v>20005</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D488">
         <v>35</v>
@@ -9085,7 +8770,7 @@
         <v>20046</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D489">
         <v>35</v>
@@ -9099,7 +8784,7 @@
         <v>20087</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D490">
         <v>35</v>
@@ -9113,7 +8798,7 @@
         <v>20128</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D491">
         <v>35</v>
@@ -9127,7 +8812,7 @@
         <v>20169</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D492">
         <v>35</v>
@@ -9141,7 +8826,7 @@
         <v>20210</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D493">
         <v>35</v>
@@ -9155,7 +8840,7 @@
         <v>20251</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D494">
         <v>35</v>
@@ -9169,7 +8854,7 @@
         <v>20292</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D495">
         <v>35</v>
@@ -9183,7 +8868,7 @@
         <v>20333</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D496">
         <v>35</v>
@@ -9197,7 +8882,7 @@
         <v>20374</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D497">
         <v>35</v>
@@ -9211,7 +8896,7 @@
         <v>20415</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D498">
         <v>35</v>
@@ -9225,7 +8910,7 @@
         <v>20456</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D499">
         <v>35</v>
@@ -9239,7 +8924,7 @@
         <v>20497</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D500">
         <v>35</v>
@@ -9253,7 +8938,7 @@
         <v>20538</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D501">
         <v>35</v>
@@ -9267,7 +8952,7 @@
         <v>20579</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D502">
         <v>35</v>
@@ -9281,7 +8966,7 @@
         <v>20620</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D503">
         <v>35</v>
@@ -9295,7 +8980,7 @@
         <v>20661</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D504">
         <v>35</v>
@@ -9309,7 +8994,7 @@
         <v>20702</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D505">
         <v>35</v>
@@ -9323,7 +9008,7 @@
         <v>20743</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D506">
         <v>35</v>
@@ -9337,7 +9022,7 @@
         <v>20784</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D507">
         <v>35</v>
@@ -9351,7 +9036,7 @@
         <v>20825</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D508">
         <v>35</v>
@@ -9365,7 +9050,7 @@
         <v>20866</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D509">
         <v>35</v>
@@ -9379,7 +9064,7 @@
         <v>20907</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D510">
         <v>35</v>
@@ -9393,7 +9078,7 @@
         <v>20948</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D511">
         <v>35</v>
@@ -9407,7 +9092,7 @@
         <v>20989</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D512">
         <v>35</v>
@@ -9421,7 +9106,7 @@
         <v>21030</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D513">
         <v>35</v>
@@ -9435,7 +9120,7 @@
         <v>21071</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D514">
         <v>35</v>
@@ -9449,7 +9134,7 @@
         <v>21112</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D515">
         <v>35</v>
@@ -9463,7 +9148,7 @@
         <v>21153</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D516">
         <v>35</v>
@@ -9477,7 +9162,7 @@
         <v>21194</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D517">
         <v>35</v>
@@ -9491,7 +9176,7 @@
         <v>21235</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D518">
         <v>35</v>
@@ -9505,7 +9190,7 @@
         <v>21276</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D519">
         <v>35</v>
@@ -9519,7 +9204,7 @@
         <v>21317</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D520">
         <v>35</v>
@@ -9533,7 +9218,7 @@
         <v>21358</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D521">
         <v>35</v>
@@ -9547,7 +9232,7 @@
         <v>21399</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D522">
         <v>35</v>
@@ -9561,7 +9246,7 @@
         <v>21440</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D523">
         <v>35</v>
@@ -9575,7 +9260,7 @@
         <v>21481</v>
       </c>
       <c r="C524" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D524">
         <v>35</v>
@@ -9589,7 +9274,7 @@
         <v>21522</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D525">
         <v>35</v>
@@ -9603,7 +9288,7 @@
         <v>21563</v>
       </c>
       <c r="C526" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D526">
         <v>35</v>
@@ -9617,7 +9302,7 @@
         <v>21604</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D527">
         <v>35</v>
@@ -9631,7 +9316,7 @@
         <v>21645</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D528">
         <v>35</v>
@@ -9645,7 +9330,7 @@
         <v>21686</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D529">
         <v>35</v>
@@ -9659,7 +9344,7 @@
         <v>21727</v>
       </c>
       <c r="C530" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D530">
         <v>35</v>
@@ -9673,7 +9358,7 @@
         <v>21768</v>
       </c>
       <c r="C531" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D531">
         <v>35</v>
@@ -9687,7 +9372,7 @@
         <v>21809</v>
       </c>
       <c r="C532" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D532">
         <v>35</v>
@@ -9701,7 +9386,7 @@
         <v>21850</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D533">
         <v>35</v>
@@ -9715,7 +9400,7 @@
         <v>21891</v>
       </c>
       <c r="C534" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D534">
         <v>35</v>
@@ -9729,7 +9414,7 @@
         <v>21932</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D535">
         <v>35</v>
@@ -9743,7 +9428,7 @@
         <v>21973</v>
       </c>
       <c r="C536" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D536">
         <v>35</v>
@@ -9757,7 +9442,7 @@
         <v>22014</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D537">
         <v>35</v>
@@ -9771,7 +9456,7 @@
         <v>22055</v>
       </c>
       <c r="C538" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D538">
         <v>35</v>
@@ -9785,7 +9470,7 @@
         <v>22096</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D539">
         <v>35</v>
@@ -9799,7 +9484,7 @@
         <v>22137</v>
       </c>
       <c r="C540" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D540">
         <v>35</v>
@@ -9813,7 +9498,7 @@
         <v>22178</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D541">
         <v>35</v>
@@ -9827,7 +9512,7 @@
         <v>22219</v>
       </c>
       <c r="C542" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D542">
         <v>35</v>
@@ -9841,7 +9526,7 @@
         <v>22260</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D543">
         <v>35</v>
@@ -9855,7 +9540,7 @@
         <v>22301</v>
       </c>
       <c r="C544" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D544">
         <v>35</v>
@@ -9869,7 +9554,7 @@
         <v>22342</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D545">
         <v>35</v>
@@ -9883,7 +9568,7 @@
         <v>22383</v>
       </c>
       <c r="C546" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D546">
         <v>35</v>
@@ -9897,7 +9582,7 @@
         <v>22424</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D547">
         <v>35</v>
@@ -9911,7 +9596,7 @@
         <v>22465</v>
       </c>
       <c r="C548" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D548">
         <v>35</v>
@@ -9925,7 +9610,7 @@
         <v>22506</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D549">
         <v>35</v>
@@ -9939,7 +9624,7 @@
         <v>22547</v>
       </c>
       <c r="C550" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D550">
         <v>35</v>
@@ -9953,7 +9638,7 @@
         <v>22588</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D551">
         <v>35</v>
@@ -9967,7 +9652,7 @@
         <v>22629</v>
       </c>
       <c r="C552" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D552">
         <v>35</v>
@@ -9981,7 +9666,7 @@
         <v>22670</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D553">
         <v>35</v>
@@ -9995,7 +9680,7 @@
         <v>22711</v>
       </c>
       <c r="C554" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D554">
         <v>35</v>
@@ -10009,7 +9694,7 @@
         <v>22752</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D555">
         <v>35</v>
@@ -10023,7 +9708,7 @@
         <v>22793</v>
       </c>
       <c r="C556" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D556">
         <v>35</v>
@@ -10037,7 +9722,7 @@
         <v>22834</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D557">
         <v>35</v>
@@ -10051,7 +9736,7 @@
         <v>22875</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D558">
         <v>35</v>
@@ -10065,7 +9750,7 @@
         <v>22916</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D559">
         <v>35</v>
@@ -10079,7 +9764,7 @@
         <v>22957</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D560">
         <v>35</v>
@@ -10093,7 +9778,7 @@
         <v>22998</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D561">
         <v>35</v>
@@ -10107,7 +9792,7 @@
         <v>23039</v>
       </c>
       <c r="C562" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D562">
         <v>35</v>
@@ -10121,7 +9806,7 @@
         <v>23080</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D563">
         <v>35</v>
@@ -10135,7 +9820,7 @@
         <v>23121</v>
       </c>
       <c r="C564" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D564">
         <v>35</v>
@@ -10149,7 +9834,7 @@
         <v>23162</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D565">
         <v>35</v>
@@ -10163,7 +9848,7 @@
         <v>23203</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D566">
         <v>35</v>
@@ -10177,7 +9862,7 @@
         <v>23244</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D567">
         <v>35</v>
@@ -10191,7 +9876,7 @@
         <v>23285</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D568">
         <v>35</v>
@@ -10205,7 +9890,7 @@
         <v>23326</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D569">
         <v>35</v>
@@ -10219,7 +9904,7 @@
         <v>23367</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D570">
         <v>35</v>
@@ -10233,7 +9918,7 @@
         <v>23408</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D571">
         <v>35</v>
@@ -10247,7 +9932,7 @@
         <v>23449</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D572">
         <v>35</v>
@@ -10261,7 +9946,7 @@
         <v>23490</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D573">
         <v>35</v>
@@ -10275,7 +9960,7 @@
         <v>23531</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D574">
         <v>35</v>
@@ -10289,7 +9974,7 @@
         <v>23572</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D575">
         <v>35</v>
@@ -10303,7 +9988,7 @@
         <v>23613</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D576">
         <v>35</v>
@@ -10317,7 +10002,7 @@
         <v>23654</v>
       </c>
       <c r="C577" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D577">
         <v>35</v>
@@ -10331,7 +10016,7 @@
         <v>23695</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D578">
         <v>35</v>
@@ -10345,7 +10030,7 @@
         <v>23736</v>
       </c>
       <c r="C579" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D579">
         <v>35</v>
@@ -10359,7 +10044,7 @@
         <v>23777</v>
       </c>
       <c r="C580" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D580">
         <v>35</v>
@@ -10373,7 +10058,7 @@
         <v>23818</v>
       </c>
       <c r="C581" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D581">
         <v>35</v>
@@ -10387,7 +10072,7 @@
         <v>23859</v>
       </c>
       <c r="C582" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D582">
         <v>35</v>
@@ -10401,7 +10086,7 @@
         <v>23900</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="D583">
         <v>35</v>
@@ -10415,7 +10100,7 @@
         <v>23941</v>
       </c>
       <c r="C584" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D584">
         <v>35</v>
@@ -10429,7 +10114,7 @@
         <v>23982</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D585">
         <v>35</v>
@@ -10443,7 +10128,7 @@
         <v>24023</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D586">
         <v>35</v>
@@ -10457,7 +10142,7 @@
         <v>24064</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D587">
         <v>35</v>
@@ -10471,7 +10156,7 @@
         <v>24105</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D588">
         <v>35</v>
@@ -10485,7 +10170,7 @@
         <v>24146</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D589">
         <v>35</v>
@@ -10499,7 +10184,7 @@
         <v>24187</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D590">
         <v>35</v>
@@ -10513,7 +10198,7 @@
         <v>24228</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D591">
         <v>35</v>
@@ -10527,7 +10212,7 @@
         <v>24269</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D592">
         <v>35</v>
@@ -10541,7 +10226,7 @@
         <v>24310</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D593">
         <v>35</v>
@@ -10555,7 +10240,7 @@
         <v>24351</v>
       </c>
       <c r="C594" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D594">
         <v>35</v>
@@ -10569,7 +10254,7 @@
         <v>24392</v>
       </c>
       <c r="C595" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D595">
         <v>35</v>
@@ -10583,7 +10268,7 @@
         <v>24433</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D596">
         <v>35</v>
@@ -10597,7 +10282,7 @@
         <v>24474</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D597">
         <v>35</v>
@@ -10611,7 +10296,7 @@
         <v>24515</v>
       </c>
       <c r="C598" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D598">
         <v>35</v>
@@ -10625,7 +10310,7 @@
         <v>24556</v>
       </c>
       <c r="C599" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D599">
         <v>35</v>
@@ -10639,7 +10324,7 @@
         <v>24597</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D600">
         <v>35</v>
@@ -10653,7 +10338,7 @@
         <v>24638</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D601">
         <v>35</v>
@@ -10667,7 +10352,7 @@
         <v>24679</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D602">
         <v>35</v>
@@ -10681,7 +10366,7 @@
         <v>24720</v>
       </c>
       <c r="C603" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D603">
         <v>35</v>
@@ -10695,7 +10380,7 @@
         <v>24761</v>
       </c>
       <c r="C604" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D604">
         <v>35</v>
@@ -10709,7 +10394,7 @@
         <v>24802</v>
       </c>
       <c r="C605" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D605">
         <v>35</v>
@@ -10723,7 +10408,7 @@
         <v>24843</v>
       </c>
       <c r="C606" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D606">
         <v>35</v>
@@ -10737,7 +10422,7 @@
         <v>24884</v>
       </c>
       <c r="C607" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D607">
         <v>35</v>
@@ -10751,7 +10436,7 @@
         <v>24925</v>
       </c>
       <c r="C608" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D608">
         <v>35</v>
@@ -10765,7 +10450,7 @@
         <v>24966</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D609">
         <v>35</v>
@@ -10779,7 +10464,7 @@
         <v>25007</v>
       </c>
       <c r="C610" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D610">
         <v>35</v>
@@ -10793,7 +10478,7 @@
         <v>25048</v>
       </c>
       <c r="C611" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D611">
         <v>35</v>
@@ -10807,7 +10492,7 @@
         <v>25089</v>
       </c>
       <c r="C612" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D612">
         <v>35</v>
@@ -10821,7 +10506,7 @@
         <v>25130</v>
       </c>
       <c r="C613" s="5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D613">
         <v>35</v>
@@ -10835,7 +10520,7 @@
         <v>25171</v>
       </c>
       <c r="C614" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D614">
         <v>35</v>
@@ -10849,7 +10534,7 @@
         <v>25212</v>
       </c>
       <c r="C615" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D615">
         <v>35</v>
@@ -10863,7 +10548,7 @@
         <v>25253</v>
       </c>
       <c r="C616" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D616">
         <v>35</v>
@@ -10877,7 +10562,7 @@
         <v>25294</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D617">
         <v>35</v>
@@ -10891,7 +10576,7 @@
         <v>25335</v>
       </c>
       <c r="C618" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D618">
         <v>35</v>
@@ -10905,7 +10590,7 @@
         <v>25376</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D619">
         <v>35</v>
@@ -10919,7 +10604,7 @@
         <v>25417</v>
       </c>
       <c r="C620" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D620">
         <v>35</v>
@@ -10933,7 +10618,7 @@
         <v>25458</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D621">
         <v>35</v>
@@ -10947,7 +10632,7 @@
         <v>25499</v>
       </c>
       <c r="C622" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D622">
         <v>35</v>
@@ -10961,7 +10646,7 @@
         <v>25540</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D623">
         <v>35</v>
@@ -10975,7 +10660,7 @@
         <v>25581</v>
       </c>
       <c r="C624" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D624">
         <v>35</v>
@@ -10989,7 +10674,7 @@
         <v>25622</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D625">
         <v>35</v>
@@ -11003,7 +10688,7 @@
         <v>25663</v>
       </c>
       <c r="C626" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D626">
         <v>35</v>
@@ -11017,7 +10702,7 @@
         <v>25704</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D627">
         <v>35</v>
@@ -11031,7 +10716,7 @@
         <v>25745</v>
       </c>
       <c r="C628" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D628">
         <v>35</v>
@@ -11045,7 +10730,7 @@
         <v>25786</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D629">
         <v>35</v>
@@ -11059,7 +10744,7 @@
         <v>25827</v>
       </c>
       <c r="C630" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D630">
         <v>35</v>
@@ -11073,7 +10758,7 @@
         <v>25868</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D631">
         <v>35</v>
@@ -11087,7 +10772,7 @@
         <v>25909</v>
       </c>
       <c r="C632" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D632">
         <v>35</v>
@@ -11101,7 +10786,7 @@
         <v>25950</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D633">
         <v>35</v>
@@ -11115,7 +10800,7 @@
         <v>25991</v>
       </c>
       <c r="C634" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D634">
         <v>35</v>
@@ -11129,7 +10814,7 @@
         <v>26032</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D635">
         <v>35</v>
@@ -11143,7 +10828,7 @@
         <v>26073</v>
       </c>
       <c r="C636" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D636">
         <v>35</v>
@@ -11157,7 +10842,7 @@
         <v>26114</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D637">
         <v>35</v>
@@ -11171,7 +10856,7 @@
         <v>26155</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D638">
         <v>35</v>
@@ -11185,7 +10870,7 @@
         <v>26196</v>
       </c>
       <c r="C639" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D639">
         <v>35</v>
@@ -11199,7 +10884,7 @@
         <v>26237</v>
       </c>
       <c r="C640" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D640">
         <v>35</v>
@@ -11213,7 +10898,7 @@
         <v>26278</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D641">
         <v>35</v>
@@ -11227,7 +10912,7 @@
         <v>26319</v>
       </c>
       <c r="C642" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D642">
         <v>35</v>
@@ -11241,7 +10926,7 @@
         <v>26360</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D643">
         <v>35</v>
@@ -11255,7 +10940,7 @@
         <v>26401</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D644">
         <v>35</v>
@@ -11269,7 +10954,7 @@
         <v>26442</v>
       </c>
       <c r="C645" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D645">
         <v>35</v>
@@ -11283,7 +10968,7 @@
         <v>26483</v>
       </c>
       <c r="C646" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D646">
         <v>35</v>
@@ -11297,7 +10982,7 @@
         <v>26524</v>
       </c>
       <c r="C647" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D647">
         <v>35</v>
@@ -11311,7 +10996,7 @@
         <v>26565</v>
       </c>
       <c r="C648" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D648">
         <v>35</v>
@@ -11325,7 +11010,7 @@
         <v>26606</v>
       </c>
       <c r="C649" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D649">
         <v>35</v>
@@ -11339,7 +11024,7 @@
         <v>26647</v>
       </c>
       <c r="C650" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D650">
         <v>35</v>
@@ -11353,7 +11038,7 @@
         <v>26688</v>
       </c>
       <c r="C651" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D651">
         <v>35</v>
@@ -11367,7 +11052,7 @@
         <v>26729</v>
       </c>
       <c r="C652" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D652">
         <v>35</v>
@@ -11381,7 +11066,7 @@
         <v>26770</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D653">
         <v>35</v>
@@ -11395,7 +11080,7 @@
         <v>26811</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D654">
         <v>35</v>
@@ -11409,7 +11094,7 @@
         <v>26852</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D655">
         <v>35</v>
@@ -11423,7 +11108,7 @@
         <v>26893</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D656">
         <v>35</v>
@@ -11437,7 +11122,7 @@
         <v>26934</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D657">
         <v>35</v>
@@ -11451,7 +11136,7 @@
         <v>26975</v>
       </c>
       <c r="C658" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D658">
         <v>35</v>
@@ -11465,7 +11150,7 @@
         <v>27016</v>
       </c>
       <c r="C659" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D659">
         <v>35</v>
@@ -11479,7 +11164,7 @@
         <v>27057</v>
       </c>
       <c r="C660" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D660">
         <v>35</v>
@@ -11493,7 +11178,7 @@
         <v>27098</v>
       </c>
       <c r="C661" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D661">
         <v>35</v>
@@ -11507,7 +11192,7 @@
         <v>27139</v>
       </c>
       <c r="C662" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D662">
         <v>35</v>
@@ -11521,7 +11206,7 @@
         <v>27180</v>
       </c>
       <c r="C663" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D663">
         <v>35</v>
@@ -11535,7 +11220,7 @@
         <v>27221</v>
       </c>
       <c r="C664" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D664">
         <v>35</v>
@@ -11549,7 +11234,7 @@
         <v>27262</v>
       </c>
       <c r="C665" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D665">
         <v>35</v>
@@ -11563,7 +11248,7 @@
         <v>27303</v>
       </c>
       <c r="C666" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D666">
         <v>35</v>
@@ -11577,7 +11262,7 @@
         <v>27344</v>
       </c>
       <c r="C667" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D667">
         <v>35</v>
@@ -11591,7 +11276,7 @@
         <v>27385</v>
       </c>
       <c r="C668" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D668">
         <v>35</v>
@@ -11605,7 +11290,7 @@
         <v>27426</v>
       </c>
       <c r="C669" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D669">
         <v>35</v>
@@ -11619,7 +11304,7 @@
         <v>27467</v>
       </c>
       <c r="C670" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D670">
         <v>35</v>
@@ -11633,7 +11318,7 @@
         <v>27508</v>
       </c>
       <c r="C671" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D671">
         <v>35</v>
@@ -11647,7 +11332,7 @@
         <v>27549</v>
       </c>
       <c r="C672" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D672">
         <v>35</v>
@@ -11661,7 +11346,7 @@
         <v>27590</v>
       </c>
       <c r="C673" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D673">
         <v>35</v>
@@ -11675,7 +11360,7 @@
         <v>27631</v>
       </c>
       <c r="C674" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D674">
         <v>35</v>
@@ -11689,7 +11374,7 @@
         <v>27672</v>
       </c>
       <c r="C675" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D675">
         <v>35</v>
@@ -11703,7 +11388,7 @@
         <v>27713</v>
       </c>
       <c r="C676" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D676">
         <v>35</v>
@@ -11717,7 +11402,7 @@
         <v>27754</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D677">
         <v>35</v>
@@ -11731,7 +11416,7 @@
         <v>27795</v>
       </c>
       <c r="C678" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D678">
         <v>35</v>
@@ -11745,7 +11430,7 @@
         <v>27836</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D679">
         <v>35</v>
@@ -11759,7 +11444,7 @@
         <v>27877</v>
       </c>
       <c r="C680" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D680">
         <v>35</v>
@@ -11773,7 +11458,7 @@
         <v>27918</v>
       </c>
       <c r="C681" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D681">
         <v>35</v>
@@ -11787,7 +11472,7 @@
         <v>27959</v>
       </c>
       <c r="C682" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D682">
         <v>35</v>
@@ -11801,7 +11486,7 @@
         <v>28000</v>
       </c>
       <c r="C683" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D683">
         <v>35</v>
@@ -11815,7 +11500,7 @@
         <v>28041</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D684">
         <v>35</v>
@@ -11829,7 +11514,7 @@
         <v>28082</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D685">
         <v>35</v>
@@ -11843,7 +11528,7 @@
         <v>28123</v>
       </c>
       <c r="C686" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D686">
         <v>35</v>
@@ -11857,7 +11542,7 @@
         <v>28164</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D687">
         <v>35</v>
@@ -11871,7 +11556,7 @@
         <v>28205</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D688">
         <v>35</v>
@@ -11885,7 +11570,7 @@
         <v>28246</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D689">
         <v>35</v>
@@ -11899,7 +11584,7 @@
         <v>28287</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D690">
         <v>35</v>
@@ -11913,7 +11598,7 @@
         <v>28328</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D691">
         <v>35</v>
@@ -11927,7 +11612,7 @@
         <v>28369</v>
       </c>
       <c r="C692" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D692">
         <v>35</v>
@@ -11941,7 +11626,7 @@
         <v>28410</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D693">
         <v>35</v>
@@ -11955,7 +11640,7 @@
         <v>28451</v>
       </c>
       <c r="C694" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D694">
         <v>35</v>
@@ -11969,7 +11654,7 @@
         <v>28492</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D695">
         <v>35</v>
@@ -11983,7 +11668,7 @@
         <v>28533</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D696">
         <v>35</v>
@@ -11997,7 +11682,7 @@
         <v>28574</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D697">
         <v>35</v>
@@ -12011,7 +11696,7 @@
         <v>28615</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D698">
         <v>35</v>
@@ -12025,7 +11710,7 @@
         <v>28656</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D699">
         <v>35</v>
@@ -12039,7 +11724,7 @@
         <v>28697</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D700">
         <v>35</v>
@@ -12053,7 +11738,7 @@
         <v>28738</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D701">
         <v>35</v>
@@ -12067,7 +11752,7 @@
         <v>28779</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D702">
         <v>35</v>
@@ -12081,7 +11766,7 @@
         <v>28820</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D703">
         <v>35</v>
@@ -12095,7 +11780,7 @@
         <v>28861</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D704">
         <v>35</v>
@@ -12109,7 +11794,7 @@
         <v>28902</v>
       </c>
       <c r="C705" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D705">
         <v>35</v>
@@ -12123,7 +11808,7 @@
         <v>28943</v>
       </c>
       <c r="C706" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D706">
         <v>35</v>
@@ -12137,7 +11822,7 @@
         <v>28984</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D707">
         <v>35</v>
@@ -12151,7 +11836,7 @@
         <v>29025</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D708">
         <v>35</v>
@@ -12165,7 +11850,7 @@
         <v>29066</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D709">
         <v>35</v>
@@ -12179,7 +11864,7 @@
         <v>29107</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D710">
         <v>35</v>
@@ -12193,7 +11878,7 @@
         <v>29148</v>
       </c>
       <c r="C711" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D711">
         <v>35</v>
@@ -12207,7 +11892,7 @@
         <v>29189</v>
       </c>
       <c r="C712" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D712">
         <v>35</v>
@@ -12221,7 +11906,7 @@
         <v>29230</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D713">
         <v>35</v>
@@ -12235,7 +11920,7 @@
         <v>29271</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D714">
         <v>35</v>
@@ -12249,7 +11934,7 @@
         <v>29312</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D715">
         <v>35</v>
@@ -12263,7 +11948,7 @@
         <v>29353</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D716">
         <v>35</v>
@@ -12277,7 +11962,7 @@
         <v>29394</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D717">
         <v>35</v>
@@ -12291,7 +11976,7 @@
         <v>29435</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D718">
         <v>35</v>
@@ -12305,7 +11990,7 @@
         <v>29476</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D719">
         <v>35</v>
@@ -12319,7 +12004,7 @@
         <v>29517</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D720">
         <v>35</v>
@@ -12333,7 +12018,7 @@
         <v>29558</v>
       </c>
       <c r="C721" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D721">
         <v>35</v>
@@ -12347,7 +12032,7 @@
         <v>29599</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D722">
         <v>35</v>
@@ -12361,7 +12046,7 @@
         <v>29640</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D723">
         <v>35</v>
@@ -12375,7 +12060,7 @@
         <v>29681</v>
       </c>
       <c r="C724" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D724">
         <v>35</v>
@@ -12389,7 +12074,7 @@
         <v>29722</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D725">
         <v>35</v>
@@ -12403,7 +12088,7 @@
         <v>29763</v>
       </c>
       <c r="C726" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D726">
         <v>35</v>
@@ -12417,7 +12102,7 @@
         <v>29804</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D727">
         <v>35</v>
@@ -12431,7 +12116,7 @@
         <v>29845</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D728">
         <v>35</v>
@@ -12445,7 +12130,7 @@
         <v>29886</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D729">
         <v>35</v>
@@ -12459,7 +12144,7 @@
         <v>29927</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D730">
         <v>35</v>
@@ -12473,7 +12158,7 @@
         <v>29968</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D731">
         <v>35</v>
@@ -12487,7 +12172,7 @@
         <v>30009</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D732">
         <v>35</v>
@@ -12501,7 +12186,7 @@
         <v>30050</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D733">
         <v>35</v>
@@ -12515,7 +12200,7 @@
         <v>30091</v>
       </c>
       <c r="C734" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D734">
         <v>35</v>
@@ -12529,7 +12214,7 @@
         <v>30132</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D735">
         <v>35</v>
@@ -12543,7 +12228,7 @@
         <v>30173</v>
       </c>
       <c r="C736" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D736">
         <v>35</v>
@@ -12557,7 +12242,7 @@
         <v>30214</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D737">
         <v>35</v>
@@ -12571,7 +12256,7 @@
         <v>30255</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D738">
         <v>35</v>
@@ -12585,7 +12270,7 @@
         <v>30296</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D739">
         <v>35</v>
@@ -12599,7 +12284,7 @@
         <v>30337</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D740">
         <v>35</v>
@@ -12613,7 +12298,7 @@
         <v>30378</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D741">
         <v>35</v>
@@ -12627,7 +12312,7 @@
         <v>30419</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D742">
         <v>35</v>
@@ -12641,7 +12326,7 @@
         <v>30460</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D743">
         <v>35</v>
@@ -12655,7 +12340,7 @@
         <v>30501</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D744">
         <v>35</v>
@@ -12669,7 +12354,7 @@
         <v>30542</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D745">
         <v>35</v>
@@ -12683,7 +12368,7 @@
         <v>30583</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D746">
         <v>35</v>
@@ -12697,7 +12382,7 @@
         <v>30624</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D747">
         <v>35</v>
@@ -12711,7 +12396,7 @@
         <v>30665</v>
       </c>
       <c r="C748" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D748">
         <v>35</v>
@@ -12725,7 +12410,7 @@
         <v>30706</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D749">
         <v>35</v>
@@ -12739,7 +12424,7 @@
         <v>30747</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D750">
         <v>35</v>
@@ -12753,7 +12438,7 @@
         <v>30788</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D751">
         <v>35</v>
@@ -12767,7 +12452,7 @@
         <v>30829</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D752">
         <v>35</v>
@@ -12781,7 +12466,7 @@
         <v>30870</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D753">
         <v>35</v>
@@ -12795,7 +12480,7 @@
         <v>30911</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D754">
         <v>35</v>
@@ -12809,7 +12494,7 @@
         <v>30952</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D755">
         <v>35</v>
@@ -12823,7 +12508,7 @@
         <v>30993</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D756">
         <v>35</v>
@@ -12837,7 +12522,7 @@
         <v>31034</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D757">
         <v>35</v>
@@ -12851,7 +12536,7 @@
         <v>31075</v>
       </c>
       <c r="C758" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D758">
         <v>35</v>
@@ -12865,7 +12550,7 @@
         <v>31116</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D759">
         <v>35</v>
@@ -12879,7 +12564,7 @@
         <v>31157</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D760">
         <v>35</v>
@@ -12893,7 +12578,7 @@
         <v>31198</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D761">
         <v>35</v>
@@ -12907,7 +12592,7 @@
         <v>31239</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D762">
         <v>35</v>
@@ -12921,7 +12606,7 @@
         <v>31280</v>
       </c>
       <c r="C763" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D763">
         <v>35</v>
@@ -12935,7 +12620,7 @@
         <v>31321</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D764">
         <v>35</v>
@@ -12949,7 +12634,7 @@
         <v>31362</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D765">
         <v>35</v>
@@ -12963,7 +12648,7 @@
         <v>31403</v>
       </c>
       <c r="C766" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D766">
         <v>35</v>
@@ -12977,7 +12662,7 @@
         <v>31444</v>
       </c>
       <c r="C767" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D767">
         <v>35</v>
@@ -12991,7 +12676,7 @@
         <v>31485</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D768">
         <v>35</v>
@@ -13005,7 +12690,7 @@
         <v>31526</v>
       </c>
       <c r="C769" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D769">
         <v>35</v>
@@ -13019,7 +12704,7 @@
         <v>31567</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D770">
         <v>35</v>
@@ -13033,7 +12718,7 @@
         <v>31608</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D771">
         <v>35</v>
@@ -13047,7 +12732,7 @@
         <v>31649</v>
       </c>
       <c r="C772" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D772">
         <v>35</v>
@@ -13061,7 +12746,7 @@
         <v>31690</v>
       </c>
       <c r="C773" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D773">
         <v>35</v>
@@ -13075,7 +12760,7 @@
         <v>31731</v>
       </c>
       <c r="C774" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D774">
         <v>35</v>
@@ -13089,7 +12774,7 @@
         <v>31772</v>
       </c>
       <c r="C775" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D775">
         <v>35</v>
@@ -13103,7 +12788,7 @@
         <v>31813</v>
       </c>
       <c r="C776" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D776">
         <v>35</v>
@@ -13117,7 +12802,7 @@
         <v>31854</v>
       </c>
       <c r="C777" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D777">
         <v>35</v>
@@ -13131,7 +12816,7 @@
         <v>31895</v>
       </c>
       <c r="C778" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D778">
         <v>35</v>
@@ -13145,7 +12830,7 @@
         <v>31936</v>
       </c>
       <c r="C779" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D779">
         <v>35</v>
@@ -13159,7 +12844,7 @@
         <v>31977</v>
       </c>
       <c r="C780" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D780">
         <v>35</v>
@@ -13173,7 +12858,7 @@
         <v>32018</v>
       </c>
       <c r="C781" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D781">
         <v>35</v>
@@ -13187,7 +12872,7 @@
         <v>32059</v>
       </c>
       <c r="C782" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D782">
         <v>35</v>
@@ -13201,7 +12886,7 @@
         <v>32100</v>
       </c>
       <c r="C783" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D783">
         <v>35</v>
@@ -13215,7 +12900,7 @@
         <v>32141</v>
       </c>
       <c r="C784" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D784">
         <v>35</v>
@@ -13229,7 +12914,7 @@
         <v>32182</v>
       </c>
       <c r="C785" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D785">
         <v>35</v>
@@ -13243,7 +12928,7 @@
         <v>32223</v>
       </c>
       <c r="C786" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D786">
         <v>35</v>
@@ -13257,7 +12942,7 @@
         <v>32264</v>
       </c>
       <c r="C787" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D787">
         <v>35</v>
@@ -13271,7 +12956,7 @@
         <v>32305</v>
       </c>
       <c r="C788" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D788">
         <v>35</v>
@@ -13285,7 +12970,7 @@
         <v>32346</v>
       </c>
       <c r="C789" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D789">
         <v>35</v>
@@ -13299,7 +12984,7 @@
         <v>32387</v>
       </c>
       <c r="C790" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D790">
         <v>35</v>
@@ -13313,7 +12998,7 @@
         <v>32428</v>
       </c>
       <c r="C791" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D791">
         <v>35</v>
@@ -13327,7 +13012,7 @@
         <v>32469</v>
       </c>
       <c r="C792" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D792">
         <v>35</v>
@@ -13341,7 +13026,7 @@
         <v>32510</v>
       </c>
       <c r="C793" s="5" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="D793">
         <v>35</v>
@@ -13355,7 +13040,7 @@
         <v>32551</v>
       </c>
       <c r="C794" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D794">
         <v>35</v>
@@ -13369,7 +13054,7 @@
         <v>32592</v>
       </c>
       <c r="C795" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D795">
         <v>35</v>
@@ -13383,7 +13068,7 @@
         <v>32633</v>
       </c>
       <c r="C796" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D796">
         <v>35</v>
@@ -13397,7 +13082,7 @@
         <v>32674</v>
       </c>
       <c r="C797" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D797">
         <v>35</v>
@@ -13411,7 +13096,7 @@
         <v>32715</v>
       </c>
       <c r="C798" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D798">
         <v>35</v>
@@ -13425,7 +13110,7 @@
         <v>32756</v>
       </c>
       <c r="C799" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D799">
         <v>35</v>
@@ -13439,7 +13124,7 @@
         <v>32797</v>
       </c>
       <c r="C800" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D800">
         <v>35</v>
@@ -13453,7 +13138,7 @@
         <v>32838</v>
       </c>
       <c r="C801" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D801">
         <v>35</v>
@@ -13467,7 +13152,7 @@
         <v>32879</v>
       </c>
       <c r="C802" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D802">
         <v>35</v>
@@ -13481,7 +13166,7 @@
         <v>32920</v>
       </c>
       <c r="C803" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D803">
         <v>35</v>
@@ -13495,7 +13180,7 @@
         <v>32961</v>
       </c>
       <c r="C804" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D804">
         <v>35</v>
@@ -13509,7 +13194,7 @@
         <v>33002</v>
       </c>
       <c r="C805" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D805">
         <v>35</v>
@@ -13523,7 +13208,7 @@
         <v>33043</v>
       </c>
       <c r="C806" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D806">
         <v>35</v>
@@ -13537,7 +13222,7 @@
         <v>33084</v>
       </c>
       <c r="C807" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D807">
         <v>35</v>
@@ -13551,7 +13236,7 @@
         <v>33125</v>
       </c>
       <c r="C808" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D808">
         <v>35</v>
@@ -13565,7 +13250,7 @@
         <v>33166</v>
       </c>
       <c r="C809" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D809">
         <v>35</v>
@@ -13579,7 +13264,7 @@
         <v>33207</v>
       </c>
       <c r="C810" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D810">
         <v>35</v>
@@ -13593,7 +13278,7 @@
         <v>33248</v>
       </c>
       <c r="C811" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D811">
         <v>35</v>
@@ -13607,7 +13292,7 @@
         <v>33289</v>
       </c>
       <c r="C812" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D812">
         <v>35</v>
@@ -13621,7 +13306,7 @@
         <v>33330</v>
       </c>
       <c r="C813" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D813">
         <v>35</v>
@@ -13635,7 +13320,7 @@
         <v>33371</v>
       </c>
       <c r="C814" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D814">
         <v>35</v>
@@ -13649,7 +13334,7 @@
         <v>33412</v>
       </c>
       <c r="C815" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D815">
         <v>35</v>
@@ -13663,7 +13348,7 @@
         <v>33453</v>
       </c>
       <c r="C816" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D816">
         <v>35</v>
@@ -13677,7 +13362,7 @@
         <v>33494</v>
       </c>
       <c r="C817" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D817">
         <v>35</v>
@@ -13691,7 +13376,7 @@
         <v>33535</v>
       </c>
       <c r="C818" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D818">
         <v>35</v>
@@ -13705,7 +13390,7 @@
         <v>33576</v>
       </c>
       <c r="C819" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D819">
         <v>35</v>
@@ -13719,7 +13404,7 @@
         <v>33617</v>
       </c>
       <c r="C820" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D820">
         <v>35</v>
@@ -13733,7 +13418,7 @@
         <v>33658</v>
       </c>
       <c r="C821" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D821">
         <v>35</v>
@@ -13747,7 +13432,7 @@
         <v>33699</v>
       </c>
       <c r="C822" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D822">
         <v>35</v>
@@ -13761,7 +13446,7 @@
         <v>33740</v>
       </c>
       <c r="C823" s="5" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D823">
         <v>35</v>
@@ -13775,7 +13460,7 @@
         <v>33781</v>
       </c>
       <c r="C824" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D824">
         <v>35</v>
@@ -13789,7 +13474,7 @@
         <v>33822</v>
       </c>
       <c r="C825" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D825">
         <v>35</v>
@@ -13803,7 +13488,7 @@
         <v>33863</v>
       </c>
       <c r="C826" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D826">
         <v>35</v>
@@ -13817,7 +13502,7 @@
         <v>33904</v>
       </c>
       <c r="C827" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D827">
         <v>35</v>
@@ -13831,7 +13516,7 @@
         <v>33945</v>
       </c>
       <c r="C828" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D828">
         <v>35</v>
@@ -13845,7 +13530,7 @@
         <v>33986</v>
       </c>
       <c r="C829" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D829">
         <v>35</v>
@@ -13859,7 +13544,7 @@
         <v>34027</v>
       </c>
       <c r="C830" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D830">
         <v>35</v>
@@ -13873,7 +13558,7 @@
         <v>34068</v>
       </c>
       <c r="C831" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D831">
         <v>35</v>
@@ -13887,7 +13572,7 @@
         <v>34109</v>
       </c>
       <c r="C832" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D832">
         <v>35</v>
@@ -13901,7 +13586,7 @@
         <v>34150</v>
       </c>
       <c r="C833" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D833">
         <v>35</v>
@@ -13915,7 +13600,7 @@
         <v>34191</v>
       </c>
       <c r="C834" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D834">
         <v>35</v>
@@ -13929,7 +13614,7 @@
         <v>34232</v>
       </c>
       <c r="C835" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D835">
         <v>35</v>
@@ -13943,7 +13628,7 @@
         <v>34273</v>
       </c>
       <c r="C836" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D836">
         <v>35</v>
@@ -13957,7 +13642,7 @@
         <v>34314</v>
       </c>
       <c r="C837" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D837">
         <v>35</v>
@@ -13971,7 +13656,7 @@
         <v>34355</v>
       </c>
       <c r="C838" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D838">
         <v>35</v>
@@ -13985,7 +13670,7 @@
         <v>34396</v>
       </c>
       <c r="C839" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D839">
         <v>35</v>
@@ -13999,7 +13684,7 @@
         <v>34437</v>
       </c>
       <c r="C840" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D840">
         <v>35</v>
@@ -14013,7 +13698,7 @@
         <v>34478</v>
       </c>
       <c r="C841" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D841">
         <v>35</v>
@@ -14027,7 +13712,7 @@
         <v>34519</v>
       </c>
       <c r="C842" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D842">
         <v>35</v>
@@ -14041,7 +13726,7 @@
         <v>34560</v>
       </c>
       <c r="C843" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D843">
         <v>35</v>
@@ -14055,7 +13740,7 @@
         <v>34601</v>
       </c>
       <c r="C844" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D844">
         <v>35</v>
@@ -14069,7 +13754,7 @@
         <v>34642</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D845">
         <v>35</v>
@@ -14083,7 +13768,7 @@
         <v>34683</v>
       </c>
       <c r="C846" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D846">
         <v>35</v>
@@ -14097,7 +13782,7 @@
         <v>34724</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D847">
         <v>35</v>
@@ -14111,7 +13796,7 @@
         <v>34765</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D848">
         <v>35</v>
@@ -14125,7 +13810,7 @@
         <v>34806</v>
       </c>
       <c r="C849" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D849">
         <v>35</v>
@@ -14139,7 +13824,7 @@
         <v>34847</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D850">
         <v>35</v>
@@ -14153,7 +13838,7 @@
         <v>34888</v>
       </c>
       <c r="C851" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D851">
         <v>35</v>
@@ -14167,7 +13852,7 @@
         <v>34929</v>
       </c>
       <c r="C852" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D852">
         <v>35</v>
@@ -14181,7 +13866,7 @@
         <v>34970</v>
       </c>
       <c r="C853" s="5" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="D853">
         <v>35</v>
@@ -14195,7 +13880,7 @@
         <v>35011</v>
       </c>
       <c r="C854" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D854">
         <v>35</v>
@@ -14209,7 +13894,7 @@
         <v>35052</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D855">
         <v>35</v>
@@ -14223,7 +13908,7 @@
         <v>35093</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D856">
         <v>35</v>
@@ -14237,7 +13922,7 @@
         <v>35134</v>
       </c>
       <c r="C857" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D857">
         <v>35</v>
@@ -14251,7 +13936,7 @@
         <v>35175</v>
       </c>
       <c r="C858" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D858">
         <v>35</v>
@@ -14265,7 +13950,7 @@
         <v>35216</v>
       </c>
       <c r="C859" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D859">
         <v>35</v>
@@ -14279,7 +13964,7 @@
         <v>35257</v>
       </c>
       <c r="C860" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D860">
         <v>35</v>
@@ -14293,7 +13978,7 @@
         <v>35298</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D861">
         <v>35</v>
@@ -14307,7 +13992,7 @@
         <v>35339</v>
       </c>
       <c r="C862" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D862">
         <v>35</v>
@@ -14321,7 +14006,7 @@
         <v>35380</v>
       </c>
       <c r="C863" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D863">
         <v>35</v>
@@ -14335,7 +14020,7 @@
         <v>35421</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D864">
         <v>35</v>
@@ -14349,7 +14034,7 @@
         <v>35462</v>
       </c>
       <c r="C865" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D865">
         <v>35</v>
@@ -14363,7 +14048,7 @@
         <v>35503</v>
       </c>
       <c r="C866" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D866">
         <v>35</v>
@@ -14377,7 +14062,7 @@
         <v>35544</v>
       </c>
       <c r="C867" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D867">
         <v>35</v>
@@ -14391,7 +14076,7 @@
         <v>35585</v>
       </c>
       <c r="C868" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D868">
         <v>35</v>
@@ -14405,7 +14090,7 @@
         <v>35626</v>
       </c>
       <c r="C869" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D869">
         <v>35</v>
@@ -14419,7 +14104,7 @@
         <v>35667</v>
       </c>
       <c r="C870" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D870">
         <v>35</v>
@@ -14433,7 +14118,7 @@
         <v>35708</v>
       </c>
       <c r="C871" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D871">
         <v>35</v>
@@ -14447,7 +14132,7 @@
         <v>35749</v>
       </c>
       <c r="C872" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D872">
         <v>35</v>
@@ -14461,7 +14146,7 @@
         <v>35790</v>
       </c>
       <c r="C873" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D873">
         <v>35</v>
@@ -14475,7 +14160,7 @@
         <v>35831</v>
       </c>
       <c r="C874" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D874">
         <v>35</v>
@@ -14489,7 +14174,7 @@
         <v>35872</v>
       </c>
       <c r="C875" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D875">
         <v>35</v>
@@ -14503,7 +14188,7 @@
         <v>35913</v>
       </c>
       <c r="C876" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D876">
         <v>35</v>
@@ -14517,7 +14202,7 @@
         <v>35954</v>
       </c>
       <c r="C877" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D877">
         <v>35</v>
@@ -14531,7 +14216,7 @@
         <v>35995</v>
       </c>
       <c r="C878" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D878">
         <v>35</v>
@@ -14545,7 +14230,7 @@
         <v>36036</v>
       </c>
       <c r="C879" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D879">
         <v>35</v>
@@ -14559,7 +14244,7 @@
         <v>36077</v>
       </c>
       <c r="C880" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D880">
         <v>35</v>
@@ -14573,7 +14258,7 @@
         <v>36118</v>
       </c>
       <c r="C881" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D881">
         <v>35</v>
@@ -14587,7 +14272,7 @@
         <v>36159</v>
       </c>
       <c r="C882" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D882">
         <v>35</v>
@@ -14601,7 +14286,7 @@
         <v>36200</v>
       </c>
       <c r="C883" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D883">
         <v>35</v>
@@ -14615,7 +14300,7 @@
         <v>36241</v>
       </c>
       <c r="C884" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D884">
         <v>35</v>
@@ -14629,7 +14314,7 @@
         <v>36282</v>
       </c>
       <c r="C885" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D885">
         <v>35</v>
@@ -14643,7 +14328,7 @@
         <v>36323</v>
       </c>
       <c r="C886" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D886">
         <v>35</v>
@@ -14657,7 +14342,7 @@
         <v>36364</v>
       </c>
       <c r="C887" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D887">
         <v>35</v>
@@ -14671,7 +14356,7 @@
         <v>36405</v>
       </c>
       <c r="C888" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D888">
         <v>35</v>
@@ -14685,7 +14370,7 @@
         <v>36446</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D889">
         <v>35</v>
@@ -14699,7 +14384,7 @@
         <v>36487</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D890">
         <v>35</v>
@@ -14713,7 +14398,7 @@
         <v>36528</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D891">
         <v>35</v>
@@ -14727,7 +14412,7 @@
         <v>36569</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D892">
         <v>35</v>
@@ -14741,7 +14426,7 @@
         <v>36610</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D893">
         <v>35</v>
@@ -14755,7 +14440,7 @@
         <v>36651</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D894">
         <v>35</v>
@@ -14769,7 +14454,7 @@
         <v>36692</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D895">
         <v>35</v>
@@ -14783,7 +14468,7 @@
         <v>36733</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D896">
         <v>35</v>
@@ -14797,7 +14482,7 @@
         <v>36774</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D897">
         <v>35</v>
@@ -14811,7 +14496,7 @@
         <v>36815</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D898">
         <v>35</v>
@@ -14825,7 +14510,7 @@
         <v>36856</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D899">
         <v>35</v>
@@ -14839,7 +14524,7 @@
         <v>36897</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D900">
         <v>35</v>
@@ -14853,7 +14538,7 @@
         <v>36938</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D901">
         <v>35</v>
@@ -14867,7 +14552,7 @@
         <v>36979</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D902">
         <v>35</v>
@@ -14881,7 +14566,7 @@
         <v>37020</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D903">
         <v>35</v>
@@ -14895,7 +14580,7 @@
         <v>37061</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D904">
         <v>35</v>
@@ -14909,7 +14594,7 @@
         <v>37102</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D905">
         <v>35</v>
@@ -14923,7 +14608,7 @@
         <v>37143</v>
       </c>
       <c r="C906" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D906">
         <v>35</v>
@@ -14937,7 +14622,7 @@
         <v>37184</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D907">
         <v>35</v>
@@ -14951,7 +14636,7 @@
         <v>37225</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D908">
         <v>35</v>
@@ -14965,7 +14650,7 @@
         <v>37266</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D909">
         <v>35</v>
@@ -14979,7 +14664,7 @@
         <v>37307</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D910">
         <v>35</v>
@@ -14993,7 +14678,7 @@
         <v>37348</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D911">
         <v>35</v>
@@ -15007,7 +14692,7 @@
         <v>37389</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D912">
         <v>35</v>
@@ -15021,7 +14706,7 @@
         <v>37430</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D913">
         <v>35</v>
@@ -15035,7 +14720,7 @@
         <v>37471</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D914">
         <v>35</v>
@@ -15049,7 +14734,7 @@
         <v>37512</v>
       </c>
       <c r="C915" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D915">
         <v>35</v>
@@ -15063,7 +14748,7 @@
         <v>37553</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D916">
         <v>35</v>
@@ -15077,7 +14762,7 @@
         <v>37594</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D917">
         <v>35</v>
@@ -15091,7 +14776,7 @@
         <v>37635</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D918">
         <v>35</v>
@@ -15105,7 +14790,7 @@
         <v>37676</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D919">
         <v>35</v>
@@ -15119,7 +14804,7 @@
         <v>37717</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D920">
         <v>35</v>
@@ -15133,7 +14818,7 @@
         <v>37758</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D921">
         <v>35</v>
@@ -15147,7 +14832,7 @@
         <v>37799</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D922">
         <v>35</v>
@@ -15161,7 +14846,7 @@
         <v>37840</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D923">
         <v>35</v>
@@ -15175,7 +14860,7 @@
         <v>37881</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D924">
         <v>35</v>
@@ -15189,7 +14874,7 @@
         <v>37922</v>
       </c>
       <c r="C925" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D925">
         <v>35</v>
@@ -15203,7 +14888,7 @@
         <v>37963</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D926">
         <v>35</v>
@@ -15217,7 +14902,7 @@
         <v>38004</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D927">
         <v>35</v>
@@ -15231,7 +14916,7 @@
         <v>38045</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D928">
         <v>35</v>
@@ -15245,7 +14930,7 @@
         <v>38086</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D929">
         <v>35</v>
@@ -15259,7 +14944,7 @@
         <v>38127</v>
       </c>
       <c r="C930" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D930">
         <v>35</v>
@@ -15273,7 +14958,7 @@
         <v>38168</v>
       </c>
       <c r="C931" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D931">
         <v>35</v>
@@ -15287,7 +14972,7 @@
         <v>38209</v>
       </c>
       <c r="C932" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D932">
         <v>35</v>
@@ -15301,7 +14986,7 @@
         <v>38250</v>
       </c>
       <c r="C933" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D933">
         <v>35</v>
@@ -15315,7 +15000,7 @@
         <v>38291</v>
       </c>
       <c r="C934" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D934">
         <v>35</v>
@@ -15329,7 +15014,7 @@
         <v>38332</v>
       </c>
       <c r="C935" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D935">
         <v>35</v>
@@ -15343,7 +15028,7 @@
         <v>38373</v>
       </c>
       <c r="C936" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D936">
         <v>35</v>
@@ -15357,7 +15042,7 @@
         <v>38414</v>
       </c>
       <c r="C937" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D937">
         <v>35</v>
@@ -15371,7 +15056,7 @@
         <v>38455</v>
       </c>
       <c r="C938" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D938">
         <v>35</v>
@@ -15385,7 +15070,7 @@
         <v>38496</v>
       </c>
       <c r="C939" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D939">
         <v>35</v>
@@ -15399,7 +15084,7 @@
         <v>38537</v>
       </c>
       <c r="C940" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D940">
         <v>35</v>
@@ -15413,7 +15098,7 @@
         <v>38578</v>
       </c>
       <c r="C941" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D941">
         <v>35</v>
@@ -15427,7 +15112,7 @@
         <v>38619</v>
       </c>
       <c r="C942" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D942">
         <v>35</v>
@@ -15441,7 +15126,7 @@
         <v>38660</v>
       </c>
       <c r="C943" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D943">
         <v>35</v>
@@ -15455,7 +15140,7 @@
         <v>38701</v>
       </c>
       <c r="C944" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D944">
         <v>35</v>
@@ -15469,7 +15154,7 @@
         <v>38742</v>
       </c>
       <c r="C945" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D945">
         <v>35</v>
@@ -15483,7 +15168,7 @@
         <v>38783</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D946">
         <v>35</v>
@@ -15497,7 +15182,7 @@
         <v>38824</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D947">
         <v>35</v>
@@ -15511,7 +15196,7 @@
         <v>38865</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D948">
         <v>35</v>
@@ -15525,7 +15210,7 @@
         <v>38906</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D949">
         <v>35</v>
@@ -15539,7 +15224,7 @@
         <v>38947</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D950">
         <v>35</v>
@@ -15553,7 +15238,7 @@
         <v>38988</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D951">
         <v>35</v>
@@ -15567,7 +15252,7 @@
         <v>39029</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D952">
         <v>35</v>
@@ -15581,7 +15266,7 @@
         <v>39070</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D953">
         <v>35</v>
@@ -15595,7 +15280,7 @@
         <v>39111</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D954">
         <v>35</v>
@@ -15609,7 +15294,7 @@
         <v>39152</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D955">
         <v>35</v>
@@ -15623,7 +15308,7 @@
         <v>39193</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D956">
         <v>35</v>
@@ -15637,7 +15322,7 @@
         <v>39234</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D957">
         <v>35</v>
@@ -15651,7 +15336,7 @@
         <v>39275</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D958">
         <v>35</v>
@@ -15665,7 +15350,7 @@
         <v>39316</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D959">
         <v>35</v>
@@ -15679,7 +15364,7 @@
         <v>39357</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D960">
         <v>35</v>
@@ -15693,7 +15378,7 @@
         <v>39398</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D961">
         <v>35</v>
@@ -15707,7 +15392,7 @@
         <v>39439</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D962">
         <v>35</v>
@@ -15721,7 +15406,7 @@
         <v>39480</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D963">
         <v>35</v>
@@ -15735,7 +15420,7 @@
         <v>39521</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D964">
         <v>35</v>
@@ -15749,7 +15434,7 @@
         <v>39562</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D965">
         <v>35</v>
@@ -15763,7 +15448,7 @@
         <v>39603</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D966">
         <v>35</v>
@@ -15777,7 +15462,7 @@
         <v>39644</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D967">
         <v>35</v>
@@ -15791,7 +15476,7 @@
         <v>39685</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D968">
         <v>35</v>
@@ -15805,7 +15490,7 @@
         <v>39726</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D969">
         <v>35</v>
@@ -15819,7 +15504,7 @@
         <v>39767</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D970">
         <v>35</v>
@@ -15833,7 +15518,7 @@
         <v>39808</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D971">
         <v>35</v>
@@ -15847,7 +15532,7 @@
         <v>39849</v>
       </c>
       <c r="C972" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D972">
         <v>35</v>
@@ -15861,7 +15546,7 @@
         <v>39890</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D973">
         <v>35</v>
@@ -15875,7 +15560,7 @@
         <v>39931</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D974">
         <v>35</v>
@@ -15889,7 +15574,7 @@
         <v>39972</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D975">
         <v>35</v>
@@ -15903,7 +15588,7 @@
         <v>40013</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D976">
         <v>35</v>
@@ -15917,7 +15602,7 @@
         <v>40054</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D977">
         <v>35</v>
@@ -15931,7 +15616,7 @@
         <v>40095</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D978">
         <v>35</v>
@@ -15945,7 +15630,7 @@
         <v>40136</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D979">
         <v>35</v>
@@ -15959,7 +15644,7 @@
         <v>40177</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D980">
         <v>35</v>
@@ -15973,7 +15658,7 @@
         <v>40218</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D981">
         <v>35</v>
@@ -15987,7 +15672,7 @@
         <v>40259</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D982">
         <v>35</v>
@@ -16001,7 +15686,7 @@
         <v>40300</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D983">
         <v>35</v>
@@ -16015,7 +15700,7 @@
         <v>40341</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D984">
         <v>35</v>
@@ -16029,7 +15714,7 @@
         <v>40382</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D985">
         <v>35</v>
@@ -16043,7 +15728,7 @@
         <v>40423</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D986">
         <v>35</v>
@@ -16057,7 +15742,7 @@
         <v>40464</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D987">
         <v>35</v>
@@ -16071,7 +15756,7 @@
         <v>40505</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D988">
         <v>35</v>
@@ -16085,7 +15770,7 @@
         <v>40546</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D989">
         <v>35</v>
@@ -16099,7 +15784,7 @@
         <v>40587</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D990">
         <v>35</v>
@@ -16113,7 +15798,7 @@
         <v>40628</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D991">
         <v>35</v>
@@ -16127,7 +15812,7 @@
         <v>40669</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D992">
         <v>35</v>
@@ -16141,7 +15826,7 @@
         <v>40710</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D993">
         <v>35</v>
@@ -16155,7 +15840,7 @@
         <v>40751</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D994">
         <v>35</v>
@@ -16169,7 +15854,7 @@
         <v>40792</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D995">
         <v>35</v>
@@ -16183,7 +15868,7 @@
         <v>40833</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D996">
         <v>35</v>
@@ -16197,7 +15882,7 @@
         <v>40874</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D997">
         <v>35</v>
@@ -16211,7 +15896,7 @@
         <v>40915</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D998">
         <v>35</v>
@@ -16225,7 +15910,7 @@
         <v>40956</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D999">
         <v>35</v>
@@ -16239,7 +15924,7 @@
         <v>40997</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D1000">
         <v>35</v>
@@ -16254,8 +15939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16267,30 +15952,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -16301,13 +15986,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -16318,13 +16003,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -16335,13 +16020,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>5</v>
